--- a/public/data/InitialData/Книга3.xlsx
+++ b/public/data/InitialData/Книга3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="165" windowWidth="20730" windowHeight="11760"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист2!$A$1:$N$477</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -730,11 +730,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,6 +962,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -996,6 +997,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1171,15 +1173,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:N477"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
@@ -1196,7 +1198,7 @@
     <col min="14" max="14" width="96" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45.75" thickBot="1">
+    <row r="1" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -1240,7 +1242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:A65" si="0">IF(C2="Россия","RUS",IF(C2="Франция","FRA",IF(C2="Великобритания","GBR",IF(C2="Италия","ITA",IF(C2="США","USA",IF(C2="Германия","DEU",IF(C2="Китай","CHN",IF(C2="Япония","JPN",IF(C2="Польша","POL",IF(C2="СССР","SUN",IF(C2="Румыния","ROU",IF(C2="Сербия","SRB",IF(C2="Австро-Венгрия","AUT",IF(C2="Турция","TUR",IF(C2="Бельгия","BEL",IF(C2="Греция","GRC",IF(C2="Португалия","PRT",IF(C2="Черногория","MNE",IF(C2="Болгария","BGR",IF(C2="Австралия","AUS",IF(C2="Канада","CAN",IF(C2="Индия","IND",IF(C2="Новая Зеландия","NZL",IF(C2="Венгрия","HUN",IF(C2="Австрия","AUT",IF(C2="Османская Империя","TUR",IF(C2="Югославия","YUG",IF(C2="Эфиопия","ETH",IF(C2="Финляндия","FIN",IF(C2="Филипины","PHL",IF(C2="Бирма","MMR",IF(C2="Голландия","NLD",IF(C2="Тайланд","THA",IF(C2="Албания","ALB",IF(C2="Испания","ESP",IF(C2="ЮАР","ZAF",IF(C2="Куба","CUB",IF(C2="Сингапур","SGP",IF(C2="Чехословакия","CSHH",IF(C2="Дания","DNK",IF(C2="Норвегия","NOR",IF(C2="Ирак","IRQ",IF(C2="Люксембург","LUX",IF(C2="Ливия","LBY",IF(C2="ГДР","DDR",IF(C2="ФРГ","DEU",IF(C2="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>RUS</v>
@@ -1283,7 +1285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>FRA</v>
@@ -1326,7 +1328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GBR</v>
@@ -1369,7 +1371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>ITA</v>
@@ -1412,7 +1414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USA</v>
@@ -1455,7 +1457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>JPN</v>
@@ -1498,7 +1500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>ROU</v>
@@ -1541,7 +1543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SRB</v>
@@ -1584,7 +1586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>BEL</v>
@@ -1627,7 +1629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GRC</v>
@@ -1670,7 +1672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>PRT</v>
@@ -1713,7 +1715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>MNE</v>
@@ -1756,7 +1758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -1799,7 +1801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>AUT</v>
@@ -1842,7 +1844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>TUR</v>
@@ -1885,7 +1887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>BGR</v>
@@ -1928,7 +1930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RUS</v>
@@ -1971,7 +1973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>FRA</v>
@@ -2011,7 +2013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GBR</v>
@@ -2054,7 +2056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>BEL</v>
@@ -2094,7 +2096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SRB</v>
@@ -2134,7 +2136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -2174,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>AUT</v>
@@ -2214,7 +2216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -2254,7 +2256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>FRA</v>
@@ -2294,7 +2296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>JPN</v>
@@ -2334,7 +2336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USA</v>
@@ -2374,7 +2376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
@@ -2414,7 +2416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>CHN</v>
@@ -2454,7 +2456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GBR</v>
@@ -2494,7 +2496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -2534,7 +2536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USA</v>
@@ -2574,7 +2576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
@@ -2614,7 +2616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GBR</v>
@@ -2654,7 +2656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>POL</v>
@@ -2694,7 +2696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>FRA</v>
@@ -2734,7 +2736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>JPN</v>
@@ -2777,7 +2779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USA</v>
@@ -2817,7 +2819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -2860,7 +2862,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -2903,7 +2905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -2946,7 +2948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -2989,7 +2991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3032,7 +3034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3075,7 +3077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3118,7 +3120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3161,7 +3163,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3204,7 +3206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3247,7 +3249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3290,7 +3292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3333,7 +3335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3376,7 +3378,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="str">
         <f t="shared" si="0"/>
         <v>ITA</v>
@@ -3416,7 +3418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USA</v>
@@ -3456,7 +3458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="str">
         <f t="shared" si="0"/>
         <v>CHN</v>
@@ -3496,7 +3498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
@@ -3536,7 +3538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
@@ -3576,7 +3578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GBR</v>
@@ -3616,7 +3618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3656,7 +3658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="str">
         <f t="shared" si="0"/>
         <v>FRA</v>
@@ -3696,7 +3698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="str">
         <f t="shared" si="0"/>
         <v>JPN</v>
@@ -3736,7 +3738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="str">
         <f t="shared" si="0"/>
         <v>ITA</v>
@@ -3776,7 +3778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USA</v>
@@ -3816,7 +3818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RUS</v>
@@ -3856,7 +3858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="str">
         <f t="shared" si="0"/>
         <v>CHN</v>
@@ -3896,7 +3898,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="str">
         <f t="shared" ref="A66:A67" si="5">IF(C66="Россия","RUS",IF(C66="Франция","FRA",IF(C66="Великобритания","GBR",IF(C66="Италия","ITA",IF(C66="США","USA",IF(C66="Германия","DEU",IF(C66="Китай","CHN",IF(C66="Япония","JPN",IF(C66="Польша","POL",IF(C66="СССР","SUN",IF(C66="Румыния","ROU",IF(C66="Сербия","SRB",IF(C66="Австро-Венгрия","AUT",IF(C66="Турция","TUR",IF(C66="Бельгия","BEL",IF(C66="Греция","GRC",IF(C66="Португалия","PRT",IF(C66="Черногория","MNE",IF(C66="Болгария","BGR",IF(C66="Австралия","AUS",IF(C66="Канада","CAN",IF(C66="Индия","IND",IF(C66="Новая Зеландия","NZL",IF(C66="Венгрия","HUN",IF(C66="Австрия","AUT",IF(C66="Османская Империя","TUR",IF(C66="Югославия","YUG",IF(C66="Эфиопия","ETH",IF(C66="Финляндия","FIN",IF(C66="Филипины","PHL",IF(C66="Бирма","MMR",IF(C66="Голландия","NLD",IF(C66="Тайланд","THA",IF(C66="Албания","ALB",IF(C66="Испания","ESP",IF(C66="ЮАР","ZAF",IF(C66="Куба","CUB",IF(C66="Сингапур","SGP",IF(C66="Чехословакия","CSHH",IF(C66="Дания","DNK",IF(C66="Норвегия","NOR",IF(C66="Ирак","IRQ",IF(C66="Люксембург","LUX",IF(C66="Ливия","LBY",IF(C66="ГДР","DDR",IF(C66="ФРГ","DEU",IF(C66="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>POL</v>
@@ -3936,7 +3938,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="str">
         <f t="shared" si="5"/>
         <v>GBR</v>
@@ -3976,7 +3978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="str">
         <f t="shared" ref="A68:A131" si="10">IF(C68="Россия","RUS",IF(C68="Франция","FRA",IF(C68="Великобритания","GBR",IF(C68="Италия","ITA",IF(C68="США","USA",IF(C68="Германия","DEU",IF(C68="Китай","CHN",IF(C68="Япония","JPN",IF(C68="Польша","POL",IF(C68="СССР","SUN",IF(C68="Румыния","ROU",IF(C68="Сербия","SRB",IF(C68="Австро-Венгрия","AUT",IF(C68="Турция","TUR",IF(C68="Бельгия","BEL",IF(C68="Греция","GRC",IF(C68="Португалия","PRT",IF(C68="Черногория","MNE",IF(C68="Болгария","BGR",IF(C68="Австралия","AUS",IF(C68="Канада","CAN",IF(C68="Индия","IND",IF(C68="Новая Зеландия","NZL",IF(C68="Венгрия","HUN",IF(C68="Австрия","AUT",IF(C68="Османская Империя","TUR",IF(C68="Югославия","YUG",IF(C68="Эфиопия","ETH",IF(C68="Финляндия","FIN",IF(C68="Филипины","PHL",IF(C68="Бирма","MMR",IF(C68="Голландия","NLD",IF(C68="Тайланд","THA",IF(C68="Албания","ALB",IF(C68="Испания","ESP",IF(C68="ЮАР","ZAF",IF(C68="Куба","CUB",IF(C68="Сингапур","SGP",IF(C68="Чехословакия","CSHH",IF(C68="Дания","DNK",IF(C68="Норвегия","NOR",IF(C68="Ирак","IRQ",IF(C68="Люксембург","LUX",IF(C68="Ливия","LBY",IF(C68="ГДР","DDR",IF(C68="ФРГ","DEU",IF(C68="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>DEU</v>
@@ -4016,7 +4018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -4056,7 +4058,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -4099,7 +4101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -4139,7 +4141,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -4179,7 +4181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -4222,7 +4224,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -4262,7 +4264,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -4302,7 +4304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -4345,7 +4347,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="str">
         <f t="shared" si="10"/>
         <v>ITA</v>
@@ -4385,7 +4387,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="str">
         <f t="shared" si="10"/>
         <v>ITA</v>
@@ -4425,7 +4427,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="str">
         <f t="shared" si="10"/>
         <v>ITA</v>
@@ -4465,7 +4467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="str">
         <f t="shared" si="10"/>
         <v>USA</v>
@@ -4505,7 +4507,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -4545,7 +4547,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="str">
         <f t="shared" si="10"/>
         <v>USA</v>
@@ -4585,7 +4587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="str">
         <f t="shared" si="10"/>
         <v>RUS</v>
@@ -4625,7 +4627,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -4665,7 +4667,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="str">
         <f t="shared" si="10"/>
         <v>RUS</v>
@@ -4705,7 +4707,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CHN</v>
@@ -4742,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="str">
         <f t="shared" si="10"/>
         <v>POL</v>
@@ -4782,7 +4784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -4822,7 +4824,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="str">
         <f t="shared" si="10"/>
         <v>JPN</v>
@@ -4862,7 +4864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -4905,7 +4907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -4945,7 +4947,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="str">
         <f t="shared" si="10"/>
         <v>ITA</v>
@@ -4985,7 +4987,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -5025,7 +5027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="str">
         <f t="shared" si="10"/>
         <v>JPN</v>
@@ -5065,7 +5067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="str">
         <f t="shared" si="10"/>
         <v>USA</v>
@@ -5105,7 +5107,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="str">
         <f t="shared" si="10"/>
         <v>JPN</v>
@@ -5145,7 +5147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="str">
         <f t="shared" si="10"/>
         <v>ITA</v>
@@ -5185,7 +5187,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SUN</v>
@@ -5225,7 +5227,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="str">
         <f t="shared" si="10"/>
         <v>ITA</v>
@@ -5265,7 +5267,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="str">
         <f t="shared" si="10"/>
         <v>USA</v>
@@ -5305,7 +5307,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CHN</v>
@@ -5345,7 +5347,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="str">
         <f t="shared" si="10"/>
         <v>USA</v>
@@ -5385,7 +5387,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SUN</v>
@@ -5425,7 +5427,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="str">
         <f t="shared" si="10"/>
         <v>POL</v>
@@ -5465,7 +5467,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SUN</v>
@@ -5505,7 +5507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CHN</v>
@@ -5545,7 +5547,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -5585,7 +5587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CHN</v>
@@ -5625,7 +5627,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="str">
         <f t="shared" si="10"/>
         <v>POL</v>
@@ -5665,7 +5667,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SUN</v>
@@ -5705,7 +5707,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="str">
         <f t="shared" si="10"/>
         <v>POL</v>
@@ -5745,7 +5747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -5785,7 +5787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -5825,7 +5827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -5865,7 +5867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -5905,7 +5907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="str">
         <f t="shared" si="10"/>
         <v>USA</v>
@@ -5945,7 +5947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SUN</v>
@@ -5985,7 +5987,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="str">
         <f t="shared" si="10"/>
         <v>JPN</v>
@@ -6025,7 +6027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SUN</v>
@@ -6065,7 +6067,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -6105,7 +6107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SUN</v>
@@ -6145,7 +6147,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -6185,7 +6187,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="str">
         <f t="shared" si="10"/>
         <v>JPN</v>
@@ -6225,7 +6227,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CHN</v>
@@ -6265,7 +6267,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="str">
         <f t="shared" si="10"/>
         <v>JPN</v>
@@ -6305,7 +6307,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -6345,7 +6347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -6388,7 +6390,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="str">
         <f t="shared" si="10"/>
         <v>USA</v>
@@ -6428,7 +6430,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -6468,7 +6470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -6508,7 +6510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -6548,7 +6550,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="str">
         <f t="shared" ref="A132:A195" si="15">IF(C132="Россия","RUS",IF(C132="Франция","FRA",IF(C132="Великобритания","GBR",IF(C132="Италия","ITA",IF(C132="США","USA",IF(C132="Германия","DEU",IF(C132="Китай","CHN",IF(C132="Япония","JPN",IF(C132="Польша","POL",IF(C132="СССР","SUN",IF(C132="Румыния","ROU",IF(C132="Сербия","SRB",IF(C132="Австро-Венгрия","AUT",IF(C132="Турция","TUR",IF(C132="Бельгия","BEL",IF(C132="Греция","GRC",IF(C132="Португалия","PRT",IF(C132="Черногория","MNE",IF(C132="Болгария","BGR",IF(C132="Австралия","AUS",IF(C132="Канада","CAN",IF(C132="Индия","IND",IF(C132="Новая Зеландия","NZL",IF(C132="Венгрия","HUN",IF(C132="Австрия","AUT",IF(C132="Османская Империя","TUR",IF(C132="Югославия","YUG",IF(C132="Эфиопия","ETH",IF(C132="Финляндия","FIN",IF(C132="Филипины","PHL",IF(C132="Бирма","MMR",IF(C132="Голландия","NLD",IF(C132="Тайланд","THA",IF(C132="Албания","ALB",IF(C132="Испания","ESP",IF(C132="ЮАР","ZAF",IF(C132="Куба","CUB",IF(C132="Сингапур","SGP",IF(C132="Чехословакия","CSHH",IF(C132="Дания","DNK",IF(C132="Норвегия","NOR",IF(C132="Ирак","IRQ",IF(C132="Люксембург","LUX",IF(C132="Ливия","LBY",IF(C132="ГДР","DDR",IF(C132="ФРГ","DEU",IF(C132="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>FRA</v>
@@ -6588,7 +6590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="str">
         <f t="shared" si="15"/>
         <v>JPN</v>
@@ -6628,7 +6630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="str">
         <f t="shared" si="15"/>
         <v>FRA</v>
@@ -6668,7 +6670,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="str">
         <f t="shared" si="15"/>
         <v>JPN</v>
@@ -6711,7 +6713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -6751,7 +6753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -6791,7 +6793,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -6831,7 +6833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -6871,7 +6873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="str">
         <f t="shared" si="15"/>
         <v>JPN</v>
@@ -6911,7 +6913,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -6951,7 +6953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="str">
         <f t="shared" si="15"/>
         <v>RUS</v>
@@ -6991,7 +6993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="str">
         <f t="shared" si="15"/>
         <v>SUN</v>
@@ -7031,7 +7033,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="str">
         <f t="shared" si="15"/>
         <v>RUS</v>
@@ -7071,7 +7073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="str">
         <f t="shared" si="15"/>
         <v>CHN</v>
@@ -7111,7 +7113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="str">
         <f t="shared" si="15"/>
         <v>CHN</v>
@@ -7151,7 +7153,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="str">
         <f t="shared" si="15"/>
         <v>CHN</v>
@@ -7191,7 +7193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="str">
         <f t="shared" si="15"/>
         <v>POL</v>
@@ -7231,7 +7233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DDR</v>
@@ -7271,7 +7273,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="str">
         <f t="shared" si="15"/>
         <v>POL</v>
@@ -7311,7 +7313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="str">
         <f t="shared" si="15"/>
         <v>GBR</v>
@@ -7351,7 +7353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="str">
         <f t="shared" si="15"/>
         <v>POL</v>
@@ -7391,7 +7393,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="str">
         <f t="shared" si="15"/>
         <v>GBR</v>
@@ -7431,7 +7433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DEU</v>
@@ -7474,7 +7476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="str">
         <f t="shared" si="15"/>
         <v>FRA</v>
@@ -7517,7 +7519,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -7560,7 +7562,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -7603,7 +7605,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="str">
         <f t="shared" si="15"/>
         <v>RUS</v>
@@ -7646,7 +7648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="str">
         <f t="shared" si="15"/>
         <v>GBR</v>
@@ -7689,7 +7691,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DEU</v>
@@ -7732,7 +7734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="str">
         <f t="shared" si="15"/>
         <v>FRA</v>
@@ -7775,7 +7777,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -7818,7 +7820,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -7861,7 +7863,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="str">
         <f t="shared" si="15"/>
         <v>RUS</v>
@@ -7904,7 +7906,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="str">
         <f t="shared" si="15"/>
         <v>CHN</v>
@@ -7944,7 +7946,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DEU</v>
@@ -7984,7 +7986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="str">
         <f t="shared" si="15"/>
         <v>FRA</v>
@@ -8024,7 +8026,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="str">
         <f t="shared" si="15"/>
         <v>JPN</v>
@@ -8064,7 +8066,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -8104,7 +8106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -8144,7 +8146,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="str">
         <f t="shared" si="15"/>
         <v>POL</v>
@@ -8184,7 +8186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="str">
         <f t="shared" si="15"/>
         <v>SUN</v>
@@ -8224,7 +8226,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="str">
         <f t="shared" si="15"/>
         <v>SUN</v>
@@ -8264,7 +8266,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DEU</v>
@@ -8304,7 +8306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="str">
         <f t="shared" si="15"/>
         <v>SUN</v>
@@ -8344,7 +8346,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="str">
         <f t="shared" si="15"/>
         <v>GBR</v>
@@ -8384,7 +8386,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DEU</v>
@@ -8424,7 +8426,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -8464,7 +8466,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="str">
         <f t="shared" si="15"/>
         <v>SUN</v>
@@ -8504,7 +8506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="str">
         <f t="shared" si="15"/>
         <v>GBR</v>
@@ -8544,7 +8546,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DEU</v>
@@ -8584,7 +8586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DEU</v>
@@ -8624,7 +8626,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="str">
         <f t="shared" si="15"/>
         <v>FRA</v>
@@ -8664,7 +8666,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="str">
         <f t="shared" si="15"/>
         <v>FRA</v>
@@ -8704,7 +8706,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="str">
         <f t="shared" si="15"/>
         <v>JPN</v>
@@ -8744,7 +8746,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="str">
         <f t="shared" si="15"/>
         <v>JPN</v>
@@ -8784,7 +8786,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -8824,7 +8826,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -8864,7 +8866,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -8904,7 +8906,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -8944,7 +8946,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="str">
         <f t="shared" si="15"/>
         <v>RUS</v>
@@ -8984,7 +8986,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="str">
         <f t="shared" si="15"/>
         <v>RUS</v>
@@ -9024,7 +9026,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="str">
         <f t="shared" si="15"/>
         <v>CHN</v>
@@ -9064,7 +9066,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="str">
         <f t="shared" si="15"/>
         <v>CHN</v>
@@ -9104,7 +9106,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="str">
         <f t="shared" si="15"/>
         <v>POL</v>
@@ -9144,7 +9146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="str">
         <f t="shared" ref="A196:A259" si="20">IF(C196="Россия","RUS",IF(C196="Франция","FRA",IF(C196="Великобритания","GBR",IF(C196="Италия","ITA",IF(C196="США","USA",IF(C196="Германия","DEU",IF(C196="Китай","CHN",IF(C196="Япония","JPN",IF(C196="Польша","POL",IF(C196="СССР","SUN",IF(C196="Румыния","ROU",IF(C196="Сербия","SRB",IF(C196="Австро-Венгрия","AUT",IF(C196="Турция","TUR",IF(C196="Бельгия","BEL",IF(C196="Греция","GRC",IF(C196="Португалия","PRT",IF(C196="Черногория","MNE",IF(C196="Болгария","BGR",IF(C196="Австралия","AUS",IF(C196="Канада","CAN",IF(C196="Индия","IND",IF(C196="Новая Зеландия","NZL",IF(C196="Венгрия","HUN",IF(C196="Австрия","AUT",IF(C196="Османская Империя","TUR",IF(C196="Югославия","YUG",IF(C196="Эфиопия","ETH",IF(C196="Финляндия","FIN",IF(C196="Филипины","PHL",IF(C196="Бирма","MMR",IF(C196="Голландия","NLD",IF(C196="Тайланд","THA",IF(C196="Албания","ALB",IF(C196="Испания","ESP",IF(C196="ЮАР","ZAF",IF(C196="Куба","CUB",IF(C196="Сингапур","SGP",IF(C196="Чехословакия","CSHH",IF(C196="Дания","DNK",IF(C196="Норвегия","NOR",IF(C196="Ирак","IRQ",IF(C196="Люксембург","LUX",IF(C196="Ливия","LBY",IF(C196="ГДР","DDR",IF(C196="ФРГ","DEU",IF(C196="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>POL</v>
@@ -9184,7 +9186,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -9224,7 +9226,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -9264,7 +9266,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="str">
         <f t="shared" si="20"/>
         <v>DEU</v>
@@ -9307,7 +9309,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="str">
         <f t="shared" si="20"/>
         <v>FRA</v>
@@ -9347,7 +9349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="str">
         <f t="shared" si="20"/>
         <v>JPN</v>
@@ -9387,7 +9389,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="str">
         <f t="shared" si="20"/>
         <v>ITA</v>
@@ -9430,7 +9432,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="str">
         <f t="shared" si="20"/>
         <v>USA</v>
@@ -9470,7 +9472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="str">
         <f t="shared" si="20"/>
         <v>RUS</v>
@@ -9510,7 +9512,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -9550,7 +9552,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="str">
         <f t="shared" si="20"/>
         <v>DEU</v>
@@ -9590,7 +9592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="str">
         <f t="shared" si="20"/>
         <v>POL</v>
@@ -9630,7 +9632,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="str">
         <f t="shared" si="20"/>
         <v>FRA</v>
@@ -9670,7 +9672,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="str">
         <f t="shared" si="20"/>
         <v>JPN</v>
@@ -9710,7 +9712,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="str">
         <f t="shared" si="20"/>
         <v>ITA</v>
@@ -9750,7 +9752,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="str">
         <f t="shared" si="20"/>
         <v>USA</v>
@@ -9790,7 +9792,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="str">
         <f t="shared" si="20"/>
         <v>SUN</v>
@@ -9830,7 +9832,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="str">
         <f t="shared" si="20"/>
         <v>CHN</v>
@@ -9870,7 +9872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="str">
         <f t="shared" si="20"/>
         <v>POL</v>
@@ -9910,7 +9912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -9950,7 +9952,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -9990,7 +9992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="str">
         <f t="shared" si="20"/>
         <v>POL</v>
@@ -10027,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="str">
         <f t="shared" si="20"/>
         <v>CHN</v>
@@ -10064,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="str">
         <f t="shared" si="20"/>
         <v>SUN</v>
@@ -10104,7 +10106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="str">
         <f t="shared" si="20"/>
         <v>DEU</v>
@@ -10144,7 +10146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="str">
         <f t="shared" si="20"/>
         <v>USA</v>
@@ -10184,7 +10186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="str">
         <f t="shared" si="20"/>
         <v>FRA</v>
@@ -10224,7 +10226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="str">
         <f t="shared" si="20"/>
         <v>JPN</v>
@@ -10267,7 +10269,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="str">
         <f t="shared" si="20"/>
         <v>SUN</v>
@@ -10307,7 +10309,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="str">
         <f t="shared" si="20"/>
         <v>SUN</v>
@@ -10347,7 +10349,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="str">
         <f t="shared" si="20"/>
         <v>DDR</v>
@@ -10387,7 +10389,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="str">
         <f t="shared" si="20"/>
         <v>POL</v>
@@ -10427,7 +10429,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="str">
         <f t="shared" si="20"/>
         <v>HUN</v>
@@ -10467,7 +10469,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -10507,7 +10509,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="str">
         <f t="shared" si="20"/>
         <v>FRA</v>
@@ -10547,7 +10549,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="str">
         <f t="shared" si="20"/>
         <v>DEU</v>
@@ -10587,7 +10589,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="str">
         <f t="shared" si="20"/>
         <v>ITA</v>
@@ -10627,7 +10629,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="str">
         <f t="shared" si="20"/>
         <v>AUS</v>
@@ -10670,7 +10672,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="str">
         <f t="shared" si="20"/>
         <v>CAN</v>
@@ -10713,7 +10715,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="str">
         <f t="shared" si="20"/>
         <v>IND</v>
@@ -10756,7 +10758,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="str">
         <f t="shared" si="20"/>
         <v>NZL</v>
@@ -10799,7 +10801,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -10842,7 +10844,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="str">
         <f t="shared" si="20"/>
         <v>BEL</v>
@@ -10885,7 +10887,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="str">
         <f t="shared" si="20"/>
         <v>FRA</v>
@@ -10928,7 +10930,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GRC</v>
@@ -10971,7 +10973,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="str">
         <f t="shared" si="20"/>
         <v>ITA</v>
@@ -11014,7 +11016,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="str">
         <f t="shared" si="20"/>
         <v>JPN</v>
@@ -11057,7 +11059,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="str">
         <f t="shared" si="20"/>
         <v>MNE</v>
@@ -11100,7 +11102,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="str">
         <f t="shared" si="20"/>
         <v>PRT</v>
@@ -11143,7 +11145,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="str">
         <f t="shared" si="20"/>
         <v>ROU</v>
@@ -11186,7 +11188,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="str">
         <f t="shared" si="20"/>
         <v>RUS</v>
@@ -11229,7 +11231,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="str">
         <f t="shared" si="20"/>
         <v>SRB</v>
@@ -11272,7 +11274,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="str">
         <f t="shared" si="20"/>
         <v>USA</v>
@@ -11315,7 +11317,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="str">
         <f t="shared" si="20"/>
         <v>AUT</v>
@@ -11358,7 +11360,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="str">
         <f t="shared" si="20"/>
         <v>BGR</v>
@@ -11401,7 +11403,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="str">
         <f t="shared" si="20"/>
         <v>DEU</v>
@@ -11444,7 +11446,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="str">
         <f t="shared" si="20"/>
         <v>TUR</v>
@@ -11487,7 +11489,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="str">
         <f t="shared" si="20"/>
         <v>AUS</v>
@@ -11527,7 +11529,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="str">
         <f t="shared" si="20"/>
         <v>CAN</v>
@@ -11567,7 +11569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="str">
         <f t="shared" si="20"/>
         <v>IND</v>
@@ -11607,7 +11609,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="str">
         <f t="shared" si="20"/>
         <v>NZL</v>
@@ -11647,7 +11649,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -11687,7 +11689,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="str">
         <f t="shared" si="20"/>
         <v>BEL</v>
@@ -11727,7 +11729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="str">
         <f t="shared" si="20"/>
         <v>FRA</v>
@@ -11767,7 +11769,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="str">
         <f t="shared" ref="A260:A323" si="25">IF(C260="Россия","RUS",IF(C260="Франция","FRA",IF(C260="Великобритания","GBR",IF(C260="Италия","ITA",IF(C260="США","USA",IF(C260="Германия","DEU",IF(C260="Китай","CHN",IF(C260="Япония","JPN",IF(C260="Польша","POL",IF(C260="СССР","SUN",IF(C260="Румыния","ROU",IF(C260="Сербия","SRB",IF(C260="Австро-Венгрия","AUT",IF(C260="Турция","TUR",IF(C260="Бельгия","BEL",IF(C260="Греция","GRC",IF(C260="Португалия","PRT",IF(C260="Черногория","MNE",IF(C260="Болгария","BGR",IF(C260="Австралия","AUS",IF(C260="Канада","CAN",IF(C260="Индия","IND",IF(C260="Новая Зеландия","NZL",IF(C260="Венгрия","HUN",IF(C260="Австрия","AUT",IF(C260="Османская Империя","TUR",IF(C260="Югославия","YUG",IF(C260="Эфиопия","ETH",IF(C260="Финляндия","FIN",IF(C260="Филипины","PHL",IF(C260="Бирма","MMR",IF(C260="Голландия","NLD",IF(C260="Тайланд","THA",IF(C260="Албания","ALB",IF(C260="Испания","ESP",IF(C260="ЮАР","ZAF",IF(C260="Куба","CUB",IF(C260="Сингапур","SGP",IF(C260="Чехословакия","CSHH",IF(C260="Дания","DNK",IF(C260="Норвегия","NOR",IF(C260="Ирак","IRQ",IF(C260="Люксембург","LUX",IF(C260="Ливия","LBY",IF(C260="ГДР","DDR",IF(C260="ФРГ","DEU",IF(C260="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>GRC</v>
@@ -11807,7 +11809,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ITA</v>
@@ -11847,7 +11849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="str">
         <f t="shared" si="25"/>
         <v>JPN</v>
@@ -11887,7 +11889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="str">
         <f t="shared" si="25"/>
         <v>MNE</v>
@@ -11927,7 +11929,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="str">
         <f t="shared" si="25"/>
         <v>PRT</v>
@@ -11967,7 +11969,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ROU</v>
@@ -12007,7 +12009,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="str">
         <f t="shared" si="25"/>
         <v>RUS</v>
@@ -12047,7 +12049,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="str">
         <f t="shared" si="25"/>
         <v>SRB</v>
@@ -12087,7 +12089,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="str">
         <f t="shared" si="25"/>
         <v>USA</v>
@@ -12127,7 +12129,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="str">
         <f t="shared" si="25"/>
         <v>AUT</v>
@@ -12167,7 +12169,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="str">
         <f t="shared" si="25"/>
         <v>BGR</v>
@@ -12207,7 +12209,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="str">
         <f t="shared" si="25"/>
         <v>DEU</v>
@@ -12247,7 +12249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="str">
         <f t="shared" si="25"/>
         <v>TUR</v>
@@ -12287,7 +12289,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="str">
         <f t="shared" si="25"/>
         <v>SUN</v>
@@ -12330,7 +12332,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="str">
         <f t="shared" si="25"/>
         <v>DEU</v>
@@ -12373,7 +12375,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="str">
         <f t="shared" si="25"/>
         <v>CHN</v>
@@ -12416,7 +12418,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="str">
         <f t="shared" si="25"/>
         <v>JPN</v>
@@ -12459,7 +12461,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ROU</v>
@@ -12499,7 +12501,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="str">
         <f t="shared" si="25"/>
         <v>POL</v>
@@ -12539,7 +12541,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="str">
         <f t="shared" si="25"/>
         <v>GBR</v>
@@ -12579,7 +12581,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="str">
         <f t="shared" si="25"/>
         <v>USA</v>
@@ -12622,7 +12624,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ITA</v>
@@ -12662,7 +12664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="str">
         <f t="shared" si="25"/>
         <v>HUN</v>
@@ -12702,7 +12704,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="str">
         <f t="shared" si="25"/>
         <v>AUT</v>
@@ -12742,7 +12744,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="str">
         <f t="shared" si="25"/>
         <v>YUG</v>
@@ -12782,7 +12784,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="str">
         <f t="shared" si="25"/>
         <v>FRA</v>
@@ -12822,7 +12824,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ETH</v>
@@ -12865,7 +12867,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="str">
         <f t="shared" si="25"/>
         <v>FIN</v>
@@ -12905,7 +12907,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="str">
         <f t="shared" si="25"/>
         <v>GRC</v>
@@ -12945,7 +12947,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="str">
         <f t="shared" si="25"/>
         <v>PHL</v>
@@ -12985,7 +12987,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="str">
         <f t="shared" si="25"/>
         <v>CAN</v>
@@ -13025,7 +13027,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="str">
         <f t="shared" si="25"/>
         <v>NLD</v>
@@ -13065,7 +13067,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="str">
         <f t="shared" si="25"/>
         <v>IND</v>
@@ -13105,7 +13107,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="str">
         <f t="shared" si="25"/>
         <v>AUS</v>
@@ -13145,7 +13147,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="str">
         <f t="shared" si="25"/>
         <v>BEL</v>
@@ -13185,7 +13187,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="str">
         <f t="shared" si="25"/>
         <v>THA</v>
@@ -13225,7 +13227,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="str">
         <f t="shared" si="25"/>
         <v>BGR</v>
@@ -13265,7 +13267,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="str">
         <f t="shared" si="25"/>
         <v>MMR</v>
@@ -13305,7 +13307,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ALB</v>
@@ -13345,7 +13347,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ESP</v>
@@ -13385,7 +13387,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ZAF</v>
@@ -13425,7 +13427,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="str">
         <f t="shared" si="25"/>
         <v>CUB</v>
@@ -13465,7 +13467,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="str">
         <f t="shared" si="25"/>
         <v>SGP</v>
@@ -13505,7 +13507,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="str">
         <f t="shared" si="25"/>
         <v>CSHH</v>
@@ -13548,7 +13550,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="str">
         <f t="shared" si="25"/>
         <v>DNK</v>
@@ -13588,7 +13590,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="str">
         <f t="shared" si="25"/>
         <v>NOR</v>
@@ -13628,7 +13630,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="str">
         <f t="shared" si="25"/>
         <v>NZL</v>
@@ -13668,7 +13670,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="str">
         <f t="shared" si="25"/>
         <v>IRQ</v>
@@ -13708,7 +13710,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="str">
         <f t="shared" si="25"/>
         <v>LUX</v>
@@ -13748,7 +13750,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="str">
         <f t="shared" si="25"/>
         <v>SUN</v>
@@ -13788,7 +13790,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="str">
         <f t="shared" si="25"/>
         <v>DEU</v>
@@ -13828,7 +13830,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="str">
         <f t="shared" si="25"/>
         <v>CHN</v>
@@ -13868,7 +13870,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="str">
         <f t="shared" si="25"/>
         <v>JPN</v>
@@ -13908,7 +13910,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ROU</v>
@@ -13948,7 +13950,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="str">
         <f t="shared" si="25"/>
         <v>POL</v>
@@ -13988,7 +13990,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="str">
         <f t="shared" si="25"/>
         <v>GBR</v>
@@ -14028,7 +14030,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="str">
         <f t="shared" si="25"/>
         <v>USA</v>
@@ -14068,7 +14070,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ITA</v>
@@ -14108,7 +14110,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="str">
         <f t="shared" si="25"/>
         <v>HUN</v>
@@ -14148,7 +14150,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="str">
         <f t="shared" si="25"/>
         <v>AUT</v>
@@ -14188,7 +14190,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="str">
         <f t="shared" si="25"/>
         <v>YUG</v>
@@ -14228,7 +14230,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="str">
         <f t="shared" si="25"/>
         <v>FRA</v>
@@ -14268,7 +14270,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ETH</v>
@@ -14308,7 +14310,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="str">
         <f t="shared" si="25"/>
         <v>FIN</v>
@@ -14348,7 +14350,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="str">
         <f t="shared" ref="A324:A387" si="30">IF(C324="Россия","RUS",IF(C324="Франция","FRA",IF(C324="Великобритания","GBR",IF(C324="Италия","ITA",IF(C324="США","USA",IF(C324="Германия","DEU",IF(C324="Китай","CHN",IF(C324="Япония","JPN",IF(C324="Польша","POL",IF(C324="СССР","SUN",IF(C324="Румыния","ROU",IF(C324="Сербия","SRB",IF(C324="Австро-Венгрия","AUT",IF(C324="Турция","TUR",IF(C324="Бельгия","BEL",IF(C324="Греция","GRC",IF(C324="Португалия","PRT",IF(C324="Черногория","MNE",IF(C324="Болгария","BGR",IF(C324="Австралия","AUS",IF(C324="Канада","CAN",IF(C324="Индия","IND",IF(C324="Новая Зеландия","NZL",IF(C324="Венгрия","HUN",IF(C324="Австрия","AUT",IF(C324="Османская Империя","TUR",IF(C324="Югославия","YUG",IF(C324="Эфиопия","ETH",IF(C324="Финляндия","FIN",IF(C324="Филипины","PHL",IF(C324="Бирма","MMR",IF(C324="Голландия","NLD",IF(C324="Тайланд","THA",IF(C324="Албания","ALB",IF(C324="Испания","ESP",IF(C324="ЮАР","ZAF",IF(C324="Куба","CUB",IF(C324="Сингапур","SGP",IF(C324="Чехословакия","CSHH",IF(C324="Дания","DNK",IF(C324="Норвегия","NOR",IF(C324="Ирак","IRQ",IF(C324="Люксембург","LUX",IF(C324="Ливия","LBY",IF(C324="ГДР","DDR",IF(C324="ФРГ","DEU",IF(C324="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>GRC</v>
@@ -14388,7 +14390,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="str">
         <f t="shared" si="30"/>
         <v>PHL</v>
@@ -14428,7 +14430,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="str">
         <f t="shared" si="30"/>
         <v>CAN</v>
@@ -14468,7 +14470,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="str">
         <f t="shared" si="30"/>
         <v>NLD</v>
@@ -14508,7 +14510,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="str">
         <f t="shared" si="30"/>
         <v>IND</v>
@@ -14551,7 +14553,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="str">
         <f t="shared" si="30"/>
         <v>AUS</v>
@@ -14591,7 +14593,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="str">
         <f t="shared" si="30"/>
         <v>BEL</v>
@@ -14631,7 +14633,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="str">
         <f t="shared" si="30"/>
         <v>THA</v>
@@ -14674,7 +14676,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="str">
         <f t="shared" si="30"/>
         <v>BGR</v>
@@ -14714,7 +14716,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="str">
         <f t="shared" si="30"/>
         <v>MMR</v>
@@ -14754,7 +14756,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="str">
         <f t="shared" si="30"/>
         <v>ALB</v>
@@ -14797,7 +14799,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="str">
         <f t="shared" si="30"/>
         <v>ESP</v>
@@ -14837,7 +14839,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="str">
         <f t="shared" si="30"/>
         <v>ZAF</v>
@@ -14877,7 +14879,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="str">
         <f t="shared" si="30"/>
         <v>SGP</v>
@@ -14917,7 +14919,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="str">
         <f t="shared" si="30"/>
         <v>CSHH</v>
@@ -14957,7 +14959,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DNK</v>
@@ -14997,7 +14999,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="str">
         <f t="shared" si="30"/>
         <v>NOR</v>
@@ -15037,7 +15039,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="str">
         <f t="shared" si="30"/>
         <v>NZL</v>
@@ -15077,7 +15079,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="342" spans="1:14" ht="30">
+    <row r="342" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="str">
         <f t="shared" si="30"/>
         <v>LBY</v>
@@ -15117,7 +15119,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="str">
         <f t="shared" si="30"/>
         <v>RUS</v>
@@ -15160,7 +15162,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="str">
         <f t="shared" si="30"/>
         <v>GBR</v>
@@ -15203,7 +15205,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="str">
         <f t="shared" si="30"/>
         <v>FRA</v>
@@ -15246,7 +15248,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DEU</v>
@@ -15289,7 +15291,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="str">
         <f t="shared" si="30"/>
         <v>AUT</v>
@@ -15332,7 +15334,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="str">
         <f t="shared" si="30"/>
         <v>RUS</v>
@@ -15375,7 +15377,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="str">
         <f t="shared" si="30"/>
         <v>GBR</v>
@@ -15418,7 +15420,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="str">
         <f t="shared" si="30"/>
         <v>FRA</v>
@@ -15461,7 +15463,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DEU</v>
@@ -15504,7 +15506,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="str">
         <f t="shared" si="30"/>
         <v>AUT</v>
@@ -15547,7 +15549,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="str">
         <f t="shared" si="30"/>
         <v>RUS</v>
@@ -15590,7 +15592,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="str">
         <f t="shared" si="30"/>
         <v>GBR</v>
@@ -15633,7 +15635,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="str">
         <f t="shared" si="30"/>
         <v>FRA</v>
@@ -15676,7 +15678,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DEU</v>
@@ -15719,7 +15721,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="str">
         <f t="shared" si="30"/>
         <v>AUT</v>
@@ -15762,7 +15764,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="str">
         <f t="shared" si="30"/>
         <v>RUS</v>
@@ -15805,7 +15807,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="str">
         <f t="shared" si="30"/>
         <v>GBR</v>
@@ -15848,7 +15850,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="str">
         <f t="shared" si="30"/>
         <v>FRA</v>
@@ -15891,7 +15893,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DEU</v>
@@ -15934,7 +15936,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="str">
         <f t="shared" si="30"/>
         <v>AUT</v>
@@ -15977,7 +15979,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="str">
         <f t="shared" si="30"/>
         <v>JPN</v>
@@ -16017,7 +16019,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DEU</v>
@@ -16060,7 +16062,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="str">
         <f t="shared" si="30"/>
         <v>ITA</v>
@@ -16103,7 +16105,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="str">
         <f t="shared" si="30"/>
         <v>FIN</v>
@@ -16146,7 +16148,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="str">
         <f t="shared" si="30"/>
         <v>ROU</v>
@@ -16189,7 +16191,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="str">
         <f t="shared" si="30"/>
         <v>HUN</v>
@@ -16232,7 +16234,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="str">
         <f t="shared" si="30"/>
         <v>SUN</v>
@@ -16275,7 +16277,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="str">
         <f t="shared" si="30"/>
         <v>FRA</v>
@@ -16318,7 +16320,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16358,7 +16360,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="str">
         <f t="shared" si="30"/>
         <v>GBR</v>
@@ -16398,7 +16400,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="str">
         <f t="shared" si="30"/>
         <v>CHN</v>
@@ -16438,7 +16440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="str">
         <f t="shared" si="30"/>
         <v>FRA</v>
@@ -16481,7 +16483,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16524,7 +16526,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="str">
         <f t="shared" si="30"/>
         <v>GBR</v>
@@ -16567,7 +16569,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="str">
         <f t="shared" si="30"/>
         <v>SUN</v>
@@ -16610,7 +16612,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DEU</v>
@@ -16653,7 +16655,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="str">
         <f t="shared" si="30"/>
         <v>JPN</v>
@@ -16696,7 +16698,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16736,7 +16738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16776,7 +16778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16816,7 +16818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16856,7 +16858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16896,7 +16898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="385" spans="1:13">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16936,7 +16938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="386" spans="1:13">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="str">
         <f t="shared" si="30"/>
         <v>SUN</v>
@@ -16976,7 +16978,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="387" spans="1:13">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DDR</v>
@@ -17016,7 +17018,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="388" spans="1:13">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="str">
         <f t="shared" ref="A388:A451" si="35">IF(C388="Россия","RUS",IF(C388="Франция","FRA",IF(C388="Великобритания","GBR",IF(C388="Италия","ITA",IF(C388="США","USA",IF(C388="Германия","DEU",IF(C388="Китай","CHN",IF(C388="Япония","JPN",IF(C388="Польша","POL",IF(C388="СССР","SUN",IF(C388="Румыния","ROU",IF(C388="Сербия","SRB",IF(C388="Австро-Венгрия","AUT",IF(C388="Турция","TUR",IF(C388="Бельгия","BEL",IF(C388="Греция","GRC",IF(C388="Португалия","PRT",IF(C388="Черногория","MNE",IF(C388="Болгария","BGR",IF(C388="Австралия","AUS",IF(C388="Канада","CAN",IF(C388="Индия","IND",IF(C388="Новая Зеландия","NZL",IF(C388="Венгрия","HUN",IF(C388="Австрия","AUT",IF(C388="Османская Империя","TUR",IF(C388="Югославия","YUG",IF(C388="Эфиопия","ETH",IF(C388="Финляндия","FIN",IF(C388="Филипины","PHL",IF(C388="Бирма","MMR",IF(C388="Голландия","NLD",IF(C388="Тайланд","THA",IF(C388="Албания","ALB",IF(C388="Испания","ESP",IF(C388="ЮАР","ZAF",IF(C388="Куба","CUB",IF(C388="Сингапур","SGP",IF(C388="Чехословакия","CSHH",IF(C388="Дания","DNK",IF(C388="Норвегия","NOR",IF(C388="Ирак","IRQ",IF(C388="Люксембург","LUX",IF(C388="Ливия","LBY",IF(C388="ГДР","DDR",IF(C388="ФРГ","DEU",IF(C388="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>POL</v>
@@ -17056,7 +17058,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="389" spans="1:13">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="str">
         <f t="shared" si="35"/>
         <v>HUN</v>
@@ -17096,7 +17098,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="390" spans="1:13">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -17136,7 +17138,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="391" spans="1:13">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="str">
         <f t="shared" si="35"/>
         <v>GBR</v>
@@ -17176,7 +17178,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="392" spans="1:13">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="str">
         <f t="shared" si="35"/>
         <v>FRA</v>
@@ -17216,7 +17218,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="393" spans="1:13">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DEU</v>
@@ -17256,7 +17258,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="394" spans="1:13">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="str">
         <f t="shared" si="35"/>
         <v>ITA</v>
@@ -17296,7 +17298,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="395" spans="1:13">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -17336,7 +17338,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="396" spans="1:13">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="str">
         <f t="shared" si="35"/>
         <v>SUN</v>
@@ -17376,7 +17378,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="397" spans="1:13">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="str">
         <f t="shared" si="35"/>
         <v>CHN</v>
@@ -17416,7 +17418,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="398" spans="1:13">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -17456,7 +17458,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="399" spans="1:13">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="str">
         <f t="shared" si="35"/>
         <v>GBR</v>
@@ -17496,7 +17498,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="400" spans="1:13">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="str">
         <f t="shared" si="35"/>
         <v>FRA</v>
@@ -17536,7 +17538,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="401" spans="1:13">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DEU</v>
@@ -17576,7 +17578,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="402" spans="1:13">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="str">
         <f t="shared" si="35"/>
         <v>ITA</v>
@@ -17616,7 +17618,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="403" spans="1:13">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -17656,7 +17658,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="404" spans="1:13">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -17696,7 +17698,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="405" spans="1:13">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="str">
         <f t="shared" si="35"/>
         <v>SUN</v>
@@ -17736,7 +17738,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="406" spans="1:13">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="str">
         <f t="shared" si="35"/>
         <v>CHN</v>
@@ -17776,7 +17778,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="407" spans="1:13">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -17816,7 +17818,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="408" spans="1:13">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="str">
         <f t="shared" si="35"/>
         <v>SUN</v>
@@ -17856,7 +17858,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="409" spans="1:13">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="str">
         <f t="shared" si="35"/>
         <v>CHN</v>
@@ -17896,7 +17898,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="410" spans="1:13">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -17936,7 +17938,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="411" spans="1:13">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="str">
         <f t="shared" si="35"/>
         <v>GBR</v>
@@ -17976,7 +17978,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="412" spans="1:13">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="str">
         <f t="shared" si="35"/>
         <v>FRA</v>
@@ -18016,7 +18018,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="413" spans="1:13">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="str">
         <f t="shared" si="35"/>
         <v>ITA</v>
@@ -18056,7 +18058,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="414" spans="1:13">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -18096,7 +18098,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="415" spans="1:13">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="str">
         <f t="shared" si="35"/>
         <v>HUN</v>
@@ -18136,7 +18138,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="416" spans="1:13">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -18176,7 +18178,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="417" spans="1:13">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="str">
         <f t="shared" si="35"/>
         <v>GBR</v>
@@ -18216,7 +18218,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="418" spans="1:13">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="str">
         <f t="shared" si="35"/>
         <v>FRA</v>
@@ -18256,7 +18258,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="419" spans="1:13">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DEU</v>
@@ -18296,7 +18298,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="420" spans="1:13">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="str">
         <f t="shared" si="35"/>
         <v>ITA</v>
@@ -18336,7 +18338,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="421" spans="1:13">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -18376,7 +18378,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="422" spans="1:13">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="str">
         <f t="shared" si="35"/>
         <v>SUN</v>
@@ -18416,7 +18418,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="423" spans="1:13">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="str">
         <f t="shared" si="35"/>
         <v>CHN</v>
@@ -18456,7 +18458,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="424" spans="1:13">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DDR</v>
@@ -18496,7 +18498,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="425" spans="1:13">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="str">
         <f t="shared" si="35"/>
         <v>POL</v>
@@ -18536,7 +18538,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="426" spans="1:13">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="str">
         <f t="shared" si="35"/>
         <v>HUN</v>
@@ -18576,7 +18578,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="427" spans="1:13">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -18616,7 +18618,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="428" spans="1:13">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="str">
         <f t="shared" si="35"/>
         <v>GBR</v>
@@ -18656,7 +18658,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="429" spans="1:13">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="str">
         <f t="shared" si="35"/>
         <v>FRA</v>
@@ -18696,7 +18698,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="430" spans="1:13">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DEU</v>
@@ -18736,7 +18738,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="431" spans="1:13">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="str">
         <f t="shared" si="35"/>
         <v>ITA</v>
@@ -18776,7 +18778,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="432" spans="1:13">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -18816,7 +18818,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="433" spans="1:13">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="str">
         <f t="shared" si="35"/>
         <v>SUN</v>
@@ -18856,7 +18858,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="434" spans="1:13">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="str">
         <f t="shared" si="35"/>
         <v>CHN</v>
@@ -18896,7 +18898,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="435" spans="1:13">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DDR</v>
@@ -18936,7 +18938,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="436" spans="1:13">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="str">
         <f t="shared" si="35"/>
         <v>POL</v>
@@ -18976,7 +18978,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="437" spans="1:13">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="str">
         <f t="shared" si="35"/>
         <v>HUN</v>
@@ -19016,7 +19018,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="438" spans="1:13">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -19056,7 +19058,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="439" spans="1:13">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="str">
         <f t="shared" si="35"/>
         <v>GBR</v>
@@ -19096,7 +19098,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="440" spans="1:13">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="str">
         <f t="shared" si="35"/>
         <v>FRA</v>
@@ -19136,7 +19138,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="441" spans="1:13">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DEU</v>
@@ -19176,7 +19178,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="442" spans="1:13">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="str">
         <f t="shared" si="35"/>
         <v>ITA</v>
@@ -19216,7 +19218,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="443" spans="1:13">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -19256,7 +19258,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="444" spans="1:13">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="str">
         <f t="shared" si="35"/>
         <v>CHN</v>
@@ -19296,7 +19298,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="445" spans="1:13">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="str">
         <f t="shared" si="35"/>
         <v>SUN</v>
@@ -19336,7 +19338,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="446" spans="1:13">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -19376,7 +19378,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="447" spans="1:13">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DEU</v>
@@ -19416,7 +19418,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="448" spans="1:13">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="str">
         <f t="shared" si="35"/>
         <v>FRA</v>
@@ -19456,7 +19458,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="449" spans="1:13">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -19496,7 +19498,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="450" spans="1:13">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="str">
         <f t="shared" si="35"/>
         <v>ITA</v>
@@ -19536,7 +19538,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="451" spans="1:13">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -19576,7 +19578,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="452" spans="1:13">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="str">
         <f t="shared" ref="A452:A477" si="40">IF(C452="Россия","RUS",IF(C452="Франция","FRA",IF(C452="Великобритания","GBR",IF(C452="Италия","ITA",IF(C452="США","USA",IF(C452="Германия","DEU",IF(C452="Китай","CHN",IF(C452="Япония","JPN",IF(C452="Польша","POL",IF(C452="СССР","SUN",IF(C452="Румыния","ROU",IF(C452="Сербия","SRB",IF(C452="Австро-Венгрия","AUT",IF(C452="Турция","TUR",IF(C452="Бельгия","BEL",IF(C452="Греция","GRC",IF(C452="Португалия","PRT",IF(C452="Черногория","MNE",IF(C452="Болгария","BGR",IF(C452="Австралия","AUS",IF(C452="Канада","CAN",IF(C452="Индия","IND",IF(C452="Новая Зеландия","NZL",IF(C452="Венгрия","HUN",IF(C452="Австрия","AUT",IF(C452="Османская Империя","TUR",IF(C452="Югославия","YUG",IF(C452="Эфиопия","ETH",IF(C452="Финляндия","FIN",IF(C452="Филипины","PHL",IF(C452="Бирма","MMR",IF(C452="Голландия","NLD",IF(C452="Тайланд","THA",IF(C452="Албания","ALB",IF(C452="Испания","ESP",IF(C452="ЮАР","ZAF",IF(C452="Куба","CUB",IF(C452="Сингапур","SGP",IF(C452="Чехословакия","CSHH",IF(C452="Дания","DNK",IF(C452="Норвегия","NOR",IF(C452="Ирак","IRQ",IF(C452="Люксембург","LUX",IF(C452="Ливия","LBY",IF(C452="ГДР","DDR",IF(C452="ФРГ","DEU",IF(C452="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>RUS</v>
@@ -19616,27 +19618,27 @@
         <v>89</v>
       </c>
     </row>
-    <row r="453" spans="1:13">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="str">
         <f t="shared" si="40"/>
         <v>CHN</v>
       </c>
       <c r="B453" s="5" t="str">
-        <f t="shared" ref="B453:B516" si="41">IF(C453="Россия","RU",IF(C453="Франция","FR",IF(C453="Великобритания","GB",IF(C453="Италия","IT",IF(C453="США","US",IF(C453="Германия","DE",IF(C453="Китай","CN",IF(C453="Япония","JP",IF(C453="Польша","PL",IF(C453="СССР","SU",IF(C453="Румыния","RO",IF(C453="Сербия","RS",IF(C453="Австро-Венгрия","AT",IF(C453="Турция","TR",IF(C453="Бельгия","BE",IF(C453="Греция","GR",IF(C453="Португалия","PT",IF(C453="Черногория","ME",IF(C453="Болгария","BG",IF(C453="Австралия","AU",IF(C453="Канада","CA",IF(C453="Индия","IN",IF(C453="Новая Зеландия","NZ",IF(C453="Венгрия","HU",IF(C453="Австрия","AT",IF(C453="Османская Империя","TR",IF(C453="Югославия","YU",IF(C453="Эфиопия","ET",IF(C453="Финляндия","FI",IF(C453="Филипины","PH",IF(C453="Бирма","MM",IF(C453="Голландия","NL",IF(C453="Тайланд","TH",IF(C453="Албания","AL",IF(C453="Испания","ES",IF(C453="ЮАР","ZA",IF(C453="Куба","CU",IF(C453="Сингапур","SG",IF(C453="Чехословакия","CSH",IF(C453="Дания","DK",IF(C453="Норвегия","NO",IF(C453="Ирак","IQ",IF(C453="Люксембург","LU",IF(C453="Ливия","LY",IF(C453="ГДР","DD",IF(C453="ФРГ","DE",IF(C453="КНР","CN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
+        <f t="shared" ref="B453:B477" si="41">IF(C453="Россия","RU",IF(C453="Франция","FR",IF(C453="Великобритания","GB",IF(C453="Италия","IT",IF(C453="США","US",IF(C453="Германия","DE",IF(C453="Китай","CN",IF(C453="Япония","JP",IF(C453="Польша","PL",IF(C453="СССР","SU",IF(C453="Румыния","RO",IF(C453="Сербия","RS",IF(C453="Австро-Венгрия","AT",IF(C453="Турция","TR",IF(C453="Бельгия","BE",IF(C453="Греция","GR",IF(C453="Португалия","PT",IF(C453="Черногория","ME",IF(C453="Болгария","BG",IF(C453="Австралия","AU",IF(C453="Канада","CA",IF(C453="Индия","IN",IF(C453="Новая Зеландия","NZ",IF(C453="Венгрия","HU",IF(C453="Австрия","AT",IF(C453="Османская Империя","TR",IF(C453="Югославия","YU",IF(C453="Эфиопия","ET",IF(C453="Финляндия","FI",IF(C453="Филипины","PH",IF(C453="Бирма","MM",IF(C453="Голландия","NL",IF(C453="Тайланд","TH",IF(C453="Албания","AL",IF(C453="Испания","ES",IF(C453="ЮАР","ZA",IF(C453="Куба","CU",IF(C453="Сингапур","SG",IF(C453="Чехословакия","CSH",IF(C453="Дания","DK",IF(C453="Норвегия","NO",IF(C453="Ирак","IQ",IF(C453="Люксембург","LU",IF(C453="Ливия","LY",IF(C453="ГДР","DD",IF(C453="ФРГ","DE",IF(C453="КНР","CN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>CN</v>
       </c>
       <c r="C453" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D453" s="5" t="str">
-        <f t="shared" ref="D453:D516" si="42">IF(C453="Россия","Russia",IF(C453="Франция","France",IF(C453="Великобритания","Great Britain",IF(C453="Италия","Italy",IF(C453="США","USA",IF(C453="Германия","Germany",IF(C453="Китай","China",IF(C453="Япония","Japan",IF(C453="Польша","Poland",IF(C453="СССР","USSR",IF(C453="Румыния","Romania",IF(C453="Сербия","Serbia",IF(C453="Австро-Венгрия","Austria-Hungary",IF(C453="Турция","Turkey",IF(C453="Бельгия","Belgium",IF(C453="Греция","Greece",IF(C453="Португалия","Portugal",IF(C453="Черногория","Montenegro",IF(C453="Болгария","Bulgaria",IF(C453="Австралия","Australia",IF(C453="Канада","Canada",IF(C453="Индия","India",IF(C453="Новая Зеландия","New Zealand",IF(C453="Венгрия","Hungary",IF(C453="Австрия","Austria",IF(C453="Османская Империя","Ottoman Empire",IF(C453="Югославия","Yugoslavia",IF(C453="Эфиопия","Ethiopia",IF(C453="Финляндия","Finland",IF(C453="Филипины","Philippines",IF(C453="Бирма","Burma",IF(C453="Голландия","Netherlands",IF(C453="Тайланд","Thailand",IF(C453="Албания","Albania",IF(C453="Испания","Spain",IF(C453="ЮАР","South Africa",IF(C453="Куба","Cuba",IF(C453="Сингапур","Singapore",IF(C453="Чехословакия","Czechoslovakia",IF(C453="Дания","Denmark",IF(C453="Норвегия","Norway",IF(C453="Ирак","Iraq",IF(C453="Люксембург","Luxembourg",IF(C453="Ливия","Libyan Arab Jamahiriya",IF(C453="ГДР","GDR",IF(C453="ФРГ","Germany",IF(C453="КНР","PRC",)))))))))))))))))))))))))))))))))))))))))))))))</f>
+        <f t="shared" ref="D453:D477" si="42">IF(C453="Россия","Russia",IF(C453="Франция","France",IF(C453="Великобритания","Great Britain",IF(C453="Италия","Italy",IF(C453="США","USA",IF(C453="Германия","Germany",IF(C453="Китай","China",IF(C453="Япония","Japan",IF(C453="Польша","Poland",IF(C453="СССР","USSR",IF(C453="Румыния","Romania",IF(C453="Сербия","Serbia",IF(C453="Австро-Венгрия","Austria-Hungary",IF(C453="Турция","Turkey",IF(C453="Бельгия","Belgium",IF(C453="Греция","Greece",IF(C453="Португалия","Portugal",IF(C453="Черногория","Montenegro",IF(C453="Болгария","Bulgaria",IF(C453="Австралия","Australia",IF(C453="Канада","Canada",IF(C453="Индия","India",IF(C453="Новая Зеландия","New Zealand",IF(C453="Венгрия","Hungary",IF(C453="Австрия","Austria",IF(C453="Османская Империя","Ottoman Empire",IF(C453="Югославия","Yugoslavia",IF(C453="Эфиопия","Ethiopia",IF(C453="Финляндия","Finland",IF(C453="Филипины","Philippines",IF(C453="Бирма","Burma",IF(C453="Голландия","Netherlands",IF(C453="Тайланд","Thailand",IF(C453="Албания","Albania",IF(C453="Испания","Spain",IF(C453="ЮАР","South Africa",IF(C453="Куба","Cuba",IF(C453="Сингапур","Singapore",IF(C453="Чехословакия","Czechoslovakia",IF(C453="Дания","Denmark",IF(C453="Норвегия","Norway",IF(C453="Ирак","Iraq",IF(C453="Люксембург","Luxembourg",IF(C453="Ливия","Libyan Arab Jamahiriya",IF(C453="ГДР","GDR",IF(C453="ФРГ","Germany",IF(C453="КНР","PRC",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>China</v>
       </c>
       <c r="G453" t="s">
         <v>222</v>
       </c>
       <c r="H453" s="9" t="str">
-        <f t="shared" ref="H453:H516" si="43">IF(G453="численность ВС","military strength",IF(G453="Численность сухопутных войск","Ground Forces",IF(G453="Численность подводных лодок"," The number of submarines",IF(G453="Численность крупных кораблей","The number of large ships",IF(G453="Численность кораблей","The number of ships",IF(G453="Численность истребителей","The number of fighters",IF(G453="Численность военных самолетов","The number of military aircraft",IF(G453="Численность танков","The number of tanks",IF(G453="Потери погибшими солдатами в 1 мировой","Loss of dead soldiers in 1 world",IF(G453="Общие потери в 1 мировой войне","Total losses in World War 1",IF(G453="Потери погибшими солдатами во 2 мировой","The loss of dead soldiers in World 2",IF(G453="Общие потери во 2 мировой войне","Total losses in World War 2",IF(G453="Артиллерия","Artillery",IF(G453="Тяжелая артиллерия","Heavy artillery",))))))))))))))</f>
+        <f t="shared" ref="H453:H477" si="43">IF(G453="численность ВС","military strength",IF(G453="Численность сухопутных войск","Ground Forces",IF(G453="Численность подводных лодок"," The number of submarines",IF(G453="Численность крупных кораблей","The number of large ships",IF(G453="Численность кораблей","The number of ships",IF(G453="Численность истребителей","The number of fighters",IF(G453="Численность военных самолетов","The number of military aircraft",IF(G453="Численность танков","The number of tanks",IF(G453="Потери погибшими солдатами в 1 мировой","Loss of dead soldiers in 1 world",IF(G453="Общие потери в 1 мировой войне","Total losses in World War 1",IF(G453="Потери погибшими солдатами во 2 мировой","The loss of dead soldiers in World 2",IF(G453="Общие потери во 2 мировой войне","Total losses in World War 2",IF(G453="Артиллерия","Artillery",IF(G453="Тяжелая артиллерия","Heavy artillery",))))))))))))))</f>
         <v>The number of tanks</v>
       </c>
       <c r="I453" s="8">
@@ -19646,7 +19648,7 @@
         <v>37</v>
       </c>
       <c r="K453" s="9" t="str">
-        <f t="shared" ref="K453:K516" si="44">IF(J453="тыс. чел","thousand people",IF(J453="ед","units",))</f>
+        <f t="shared" ref="K453:K477" si="44">IF(J453="тыс. чел","thousand people",IF(J453="ед","units",))</f>
         <v>units</v>
       </c>
       <c r="L453">
@@ -19656,7 +19658,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="454" spans="1:13">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="str">
         <f t="shared" si="40"/>
         <v>POL</v>
@@ -19696,7 +19698,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="455" spans="1:13">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="str">
         <f t="shared" si="40"/>
         <v>GBR</v>
@@ -19736,7 +19738,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="456" spans="1:13">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="str">
         <f t="shared" si="40"/>
         <v>SUN</v>
@@ -19776,7 +19778,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="457" spans="1:13">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="str">
         <f t="shared" si="40"/>
         <v>CHN</v>
@@ -19816,7 +19818,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="458" spans="1:13">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="str">
         <f t="shared" si="40"/>
         <v>DDR</v>
@@ -19856,7 +19858,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="459" spans="1:13">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="str">
         <f t="shared" si="40"/>
         <v>POL</v>
@@ -19896,7 +19898,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="460" spans="1:13">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="str">
         <f t="shared" si="40"/>
         <v>HUN</v>
@@ -19936,7 +19938,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="461" spans="1:13">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="str">
         <f t="shared" si="40"/>
         <v>USA</v>
@@ -19976,7 +19978,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="462" spans="1:13">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="str">
         <f t="shared" si="40"/>
         <v>GBR</v>
@@ -20016,7 +20018,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="463" spans="1:13">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="str">
         <f t="shared" si="40"/>
         <v>FRA</v>
@@ -20056,7 +20058,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="464" spans="1:13">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="str">
         <f t="shared" si="40"/>
         <v>DEU</v>
@@ -20096,7 +20098,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="465" spans="1:13">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="str">
         <f t="shared" si="40"/>
         <v>ITA</v>
@@ -20136,7 +20138,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="466" spans="1:13">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="str">
         <f t="shared" si="40"/>
         <v>JPN</v>
@@ -20176,7 +20178,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="467" spans="1:13">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="str">
         <f t="shared" si="40"/>
         <v>USA</v>
@@ -20216,7 +20218,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="468" spans="1:13">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="str">
         <f t="shared" si="40"/>
         <v>RUS</v>
@@ -20256,7 +20258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="469" spans="1:13">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="str">
         <f t="shared" si="40"/>
         <v>DEU</v>
@@ -20296,7 +20298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="470" spans="1:13">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="str">
         <f t="shared" si="40"/>
         <v>FRA</v>
@@ -20336,7 +20338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="1:13">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="str">
         <f t="shared" si="40"/>
         <v>JPN</v>
@@ -20376,7 +20378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="1:13">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="str">
         <f t="shared" si="40"/>
         <v>ITA</v>
@@ -20416,7 +20418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="473" spans="1:13">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="str">
         <f t="shared" si="40"/>
         <v>USA</v>
@@ -20456,7 +20458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="474" spans="1:13">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="str">
         <f t="shared" si="40"/>
         <v>RUS</v>
@@ -20496,7 +20498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="1:13">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="str">
         <f t="shared" si="40"/>
         <v>CHN</v>
@@ -20536,7 +20538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="1:13">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="str">
         <f t="shared" si="40"/>
         <v>POL</v>
@@ -20576,7 +20578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="477" spans="1:13">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="str">
         <f t="shared" si="40"/>
         <v>GBR</v>

--- a/public/data/InitialData/Книга3.xlsx
+++ b/public/data/InitialData/Книга3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="165" windowWidth="20730" windowHeight="11760"/>
@@ -730,11 +730,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,12 +774,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -843,7 +849,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -869,6 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Гиперссылка 2" xfId="4"/>
@@ -962,7 +969,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -997,7 +1003,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1173,15 +1178,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:N477"/>
+  <dimension ref="A1:N478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
@@ -1194,11 +1199,11 @@
     <col min="10" max="10" width="18.85546875" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="61.5703125" customWidth="1"/>
+    <col min="13" max="13" width="84.28515625" customWidth="1"/>
     <col min="14" max="14" width="96" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="45.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -1242,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:A65" si="0">IF(C2="Россия","RUS",IF(C2="Франция","FRA",IF(C2="Великобритания","GBR",IF(C2="Италия","ITA",IF(C2="США","USA",IF(C2="Германия","DEU",IF(C2="Китай","CHN",IF(C2="Япония","JPN",IF(C2="Польша","POL",IF(C2="СССР","SUN",IF(C2="Румыния","ROU",IF(C2="Сербия","SRB",IF(C2="Австро-Венгрия","AUT",IF(C2="Турция","TUR",IF(C2="Бельгия","BEL",IF(C2="Греция","GRC",IF(C2="Португалия","PRT",IF(C2="Черногория","MNE",IF(C2="Болгария","BGR",IF(C2="Австралия","AUS",IF(C2="Канада","CAN",IF(C2="Индия","IND",IF(C2="Новая Зеландия","NZL",IF(C2="Венгрия","HUN",IF(C2="Австрия","AUT",IF(C2="Османская Империя","TUR",IF(C2="Югославия","YUG",IF(C2="Эфиопия","ETH",IF(C2="Финляндия","FIN",IF(C2="Филипины","PHL",IF(C2="Бирма","MMR",IF(C2="Голландия","NLD",IF(C2="Тайланд","THA",IF(C2="Албания","ALB",IF(C2="Испания","ESP",IF(C2="ЮАР","ZAF",IF(C2="Куба","CUB",IF(C2="Сингапур","SGP",IF(C2="Чехословакия","CSHH",IF(C2="Дания","DNK",IF(C2="Норвегия","NOR",IF(C2="Ирак","IRQ",IF(C2="Люксембург","LUX",IF(C2="Ливия","LBY",IF(C2="ГДР","DDR",IF(C2="ФРГ","DEU",IF(C2="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>RUS</v>
@@ -1285,7 +1290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>FRA</v>
@@ -1328,7 +1333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GBR</v>
@@ -1371,7 +1376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>ITA</v>
@@ -1414,7 +1419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USA</v>
@@ -1457,7 +1462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>JPN</v>
@@ -1500,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>ROU</v>
@@ -1543,7 +1548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SRB</v>
@@ -1586,7 +1591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>BEL</v>
@@ -1629,7 +1634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GRC</v>
@@ -1672,7 +1677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>PRT</v>
@@ -1715,7 +1720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>MNE</v>
@@ -1758,7 +1763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -1801,7 +1806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>AUT</v>
@@ -1844,7 +1849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>TUR</v>
@@ -1887,7 +1892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>BGR</v>
@@ -1930,7 +1935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RUS</v>
@@ -1973,7 +1978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>FRA</v>
@@ -2013,7 +2018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GBR</v>
@@ -2056,7 +2061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>BEL</v>
@@ -2096,7 +2101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SRB</v>
@@ -2136,7 +2141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -2176,7 +2181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>AUT</v>
@@ -2216,7 +2221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -2256,7 +2261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>FRA</v>
@@ -2296,7 +2301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>JPN</v>
@@ -2336,7 +2341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USA</v>
@@ -2376,7 +2381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
@@ -2416,7 +2421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>CHN</v>
@@ -2456,7 +2461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GBR</v>
@@ -2496,7 +2501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -2536,7 +2541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USA</v>
@@ -2576,7 +2581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
@@ -2616,7 +2621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GBR</v>
@@ -2656,7 +2661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>POL</v>
@@ -2696,7 +2701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>FRA</v>
@@ -2736,7 +2741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>JPN</v>
@@ -2779,7 +2784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USA</v>
@@ -2819,7 +2824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -2862,7 +2867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -2905,7 +2910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -2948,7 +2953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -2991,7 +2996,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3034,7 +3039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3077,7 +3082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3120,7 +3125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3163,7 +3168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3206,7 +3211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3249,7 +3254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3292,7 +3297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3335,7 +3340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3378,7 +3383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" s="5" t="str">
         <f t="shared" si="0"/>
         <v>ITA</v>
@@ -3418,7 +3423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USA</v>
@@ -3458,7 +3463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" s="5" t="str">
         <f t="shared" si="0"/>
         <v>CHN</v>
@@ -3498,7 +3503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
@@ -3538,7 +3543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" s="5" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
@@ -3578,7 +3583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" s="5" t="str">
         <f t="shared" si="0"/>
         <v>GBR</v>
@@ -3618,7 +3623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" s="5" t="str">
         <f t="shared" si="0"/>
         <v>DEU</v>
@@ -3658,7 +3663,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" s="5" t="str">
         <f t="shared" si="0"/>
         <v>FRA</v>
@@ -3698,7 +3703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" s="5" t="str">
         <f t="shared" si="0"/>
         <v>JPN</v>
@@ -3738,7 +3743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" s="5" t="str">
         <f t="shared" si="0"/>
         <v>ITA</v>
@@ -3778,7 +3783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USA</v>
@@ -3818,7 +3823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" s="5" t="str">
         <f t="shared" si="0"/>
         <v>RUS</v>
@@ -3858,7 +3863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" s="5" t="str">
         <f t="shared" si="0"/>
         <v>CHN</v>
@@ -3898,7 +3903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" s="5" t="str">
         <f t="shared" ref="A66:A67" si="5">IF(C66="Россия","RUS",IF(C66="Франция","FRA",IF(C66="Великобритания","GBR",IF(C66="Италия","ITA",IF(C66="США","USA",IF(C66="Германия","DEU",IF(C66="Китай","CHN",IF(C66="Япония","JPN",IF(C66="Польша","POL",IF(C66="СССР","SUN",IF(C66="Румыния","ROU",IF(C66="Сербия","SRB",IF(C66="Австро-Венгрия","AUT",IF(C66="Турция","TUR",IF(C66="Бельгия","BEL",IF(C66="Греция","GRC",IF(C66="Португалия","PRT",IF(C66="Черногория","MNE",IF(C66="Болгария","BGR",IF(C66="Австралия","AUS",IF(C66="Канада","CAN",IF(C66="Индия","IND",IF(C66="Новая Зеландия","NZL",IF(C66="Венгрия","HUN",IF(C66="Австрия","AUT",IF(C66="Османская Империя","TUR",IF(C66="Югославия","YUG",IF(C66="Эфиопия","ETH",IF(C66="Финляндия","FIN",IF(C66="Филипины","PHL",IF(C66="Бирма","MMR",IF(C66="Голландия","NLD",IF(C66="Тайланд","THA",IF(C66="Албания","ALB",IF(C66="Испания","ESP",IF(C66="ЮАР","ZAF",IF(C66="Куба","CUB",IF(C66="Сингапур","SGP",IF(C66="Чехословакия","CSHH",IF(C66="Дания","DNK",IF(C66="Норвегия","NOR",IF(C66="Ирак","IRQ",IF(C66="Люксембург","LUX",IF(C66="Ливия","LBY",IF(C66="ГДР","DDR",IF(C66="ФРГ","DEU",IF(C66="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>POL</v>
@@ -3938,7 +3943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" s="5" t="str">
         <f t="shared" si="5"/>
         <v>GBR</v>
@@ -3978,7 +3983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" s="5" t="str">
         <f t="shared" ref="A68:A131" si="10">IF(C68="Россия","RUS",IF(C68="Франция","FRA",IF(C68="Великобритания","GBR",IF(C68="Италия","ITA",IF(C68="США","USA",IF(C68="Германия","DEU",IF(C68="Китай","CHN",IF(C68="Япония","JPN",IF(C68="Польша","POL",IF(C68="СССР","SUN",IF(C68="Румыния","ROU",IF(C68="Сербия","SRB",IF(C68="Австро-Венгрия","AUT",IF(C68="Турция","TUR",IF(C68="Бельгия","BEL",IF(C68="Греция","GRC",IF(C68="Португалия","PRT",IF(C68="Черногория","MNE",IF(C68="Болгария","BGR",IF(C68="Австралия","AUS",IF(C68="Канада","CAN",IF(C68="Индия","IND",IF(C68="Новая Зеландия","NZL",IF(C68="Венгрия","HUN",IF(C68="Австрия","AUT",IF(C68="Османская Империя","TUR",IF(C68="Югославия","YUG",IF(C68="Эфиопия","ETH",IF(C68="Финляндия","FIN",IF(C68="Филипины","PHL",IF(C68="Бирма","MMR",IF(C68="Голландия","NLD",IF(C68="Тайланд","THA",IF(C68="Албания","ALB",IF(C68="Испания","ESP",IF(C68="ЮАР","ZAF",IF(C68="Куба","CUB",IF(C68="Сингапур","SGP",IF(C68="Чехословакия","CSHH",IF(C68="Дания","DNK",IF(C68="Норвегия","NOR",IF(C68="Ирак","IRQ",IF(C68="Люксембург","LUX",IF(C68="Ливия","LBY",IF(C68="ГДР","DDR",IF(C68="ФРГ","DEU",IF(C68="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>DEU</v>
@@ -4018,7 +4023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -4058,7 +4063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -4101,7 +4106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -4141,7 +4146,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -4181,7 +4186,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -4224,7 +4229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -4264,7 +4269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -4304,7 +4309,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -4347,7 +4352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="A77" s="5" t="str">
         <f t="shared" si="10"/>
         <v>ITA</v>
@@ -4387,7 +4392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14">
       <c r="A78" s="5" t="str">
         <f t="shared" si="10"/>
         <v>ITA</v>
@@ -4427,7 +4432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14">
       <c r="A79" s="5" t="str">
         <f t="shared" si="10"/>
         <v>ITA</v>
@@ -4467,7 +4472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="A80" s="5" t="str">
         <f t="shared" si="10"/>
         <v>USA</v>
@@ -4507,7 +4512,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="A81" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -4547,7 +4552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="A82" s="5" t="str">
         <f t="shared" si="10"/>
         <v>USA</v>
@@ -4587,7 +4592,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83" s="5" t="str">
         <f t="shared" si="10"/>
         <v>RUS</v>
@@ -4627,7 +4632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="A84" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -4667,7 +4672,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="A85" s="5" t="str">
         <f t="shared" si="10"/>
         <v>RUS</v>
@@ -4707,7 +4712,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="A86" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CHN</v>
@@ -4744,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87" s="5" t="str">
         <f t="shared" si="10"/>
         <v>POL</v>
@@ -4784,7 +4789,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="A88" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -4824,7 +4829,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="A89" s="5" t="str">
         <f t="shared" si="10"/>
         <v>JPN</v>
@@ -4864,7 +4869,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="A90" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -4907,7 +4912,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -4947,7 +4952,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="A92" s="5" t="str">
         <f t="shared" si="10"/>
         <v>ITA</v>
@@ -4987,7 +4992,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="A93" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -5027,7 +5032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14">
       <c r="A94" s="5" t="str">
         <f t="shared" si="10"/>
         <v>JPN</v>
@@ -5067,7 +5072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="A95" s="5" t="str">
         <f t="shared" si="10"/>
         <v>USA</v>
@@ -5107,7 +5112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="A96" s="5" t="str">
         <f t="shared" si="10"/>
         <v>JPN</v>
@@ -5147,7 +5152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13">
       <c r="A97" s="5" t="str">
         <f t="shared" si="10"/>
         <v>ITA</v>
@@ -5187,7 +5192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13">
       <c r="A98" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SUN</v>
@@ -5227,7 +5232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13">
       <c r="A99" s="5" t="str">
         <f t="shared" si="10"/>
         <v>ITA</v>
@@ -5267,7 +5272,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13">
       <c r="A100" s="5" t="str">
         <f t="shared" si="10"/>
         <v>USA</v>
@@ -5307,7 +5312,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13">
       <c r="A101" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CHN</v>
@@ -5347,7 +5352,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13">
       <c r="A102" s="5" t="str">
         <f t="shared" si="10"/>
         <v>USA</v>
@@ -5387,7 +5392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13">
       <c r="A103" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SUN</v>
@@ -5427,7 +5432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13">
       <c r="A104" s="5" t="str">
         <f t="shared" si="10"/>
         <v>POL</v>
@@ -5467,7 +5472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13">
       <c r="A105" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SUN</v>
@@ -5507,7 +5512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13">
       <c r="A106" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CHN</v>
@@ -5547,7 +5552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13">
       <c r="A107" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -5587,7 +5592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13">
       <c r="A108" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CHN</v>
@@ -5627,7 +5632,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13">
       <c r="A109" s="5" t="str">
         <f t="shared" si="10"/>
         <v>POL</v>
@@ -5667,7 +5672,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13">
       <c r="A110" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SUN</v>
@@ -5707,7 +5712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13">
       <c r="A111" s="5" t="str">
         <f t="shared" si="10"/>
         <v>POL</v>
@@ -5747,7 +5752,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13">
       <c r="A112" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -5787,7 +5792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14">
       <c r="A113" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -5827,7 +5832,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14">
       <c r="A114" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -5867,7 +5872,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14">
       <c r="A115" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -5907,7 +5912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14">
       <c r="A116" s="5" t="str">
         <f t="shared" si="10"/>
         <v>USA</v>
@@ -5947,7 +5952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14">
       <c r="A117" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SUN</v>
@@ -5987,7 +5992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14">
       <c r="A118" s="5" t="str">
         <f t="shared" si="10"/>
         <v>JPN</v>
@@ -6027,7 +6032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14">
       <c r="A119" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SUN</v>
@@ -6067,7 +6072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14">
       <c r="A120" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -6107,7 +6112,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14">
       <c r="A121" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SUN</v>
@@ -6147,7 +6152,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14">
       <c r="A122" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -6187,7 +6192,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14">
       <c r="A123" s="5" t="str">
         <f t="shared" si="10"/>
         <v>JPN</v>
@@ -6227,7 +6232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14">
       <c r="A124" s="5" t="str">
         <f t="shared" si="10"/>
         <v>CHN</v>
@@ -6267,7 +6272,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14">
       <c r="A125" s="5" t="str">
         <f t="shared" si="10"/>
         <v>JPN</v>
@@ -6307,7 +6312,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14">
       <c r="A126" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -6347,7 +6352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14">
       <c r="A127" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -6390,7 +6395,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14">
       <c r="A128" s="5" t="str">
         <f t="shared" si="10"/>
         <v>USA</v>
@@ -6430,7 +6435,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14">
       <c r="A129" s="5" t="str">
         <f t="shared" si="10"/>
         <v>DEU</v>
@@ -6470,7 +6475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14">
       <c r="A130" s="5" t="str">
         <f t="shared" si="10"/>
         <v>FRA</v>
@@ -6510,7 +6515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14">
       <c r="A131" s="5" t="str">
         <f t="shared" si="10"/>
         <v>GBR</v>
@@ -6550,7 +6555,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14">
       <c r="A132" s="5" t="str">
         <f t="shared" ref="A132:A195" si="15">IF(C132="Россия","RUS",IF(C132="Франция","FRA",IF(C132="Великобритания","GBR",IF(C132="Италия","ITA",IF(C132="США","USA",IF(C132="Германия","DEU",IF(C132="Китай","CHN",IF(C132="Япония","JPN",IF(C132="Польша","POL",IF(C132="СССР","SUN",IF(C132="Румыния","ROU",IF(C132="Сербия","SRB",IF(C132="Австро-Венгрия","AUT",IF(C132="Турция","TUR",IF(C132="Бельгия","BEL",IF(C132="Греция","GRC",IF(C132="Португалия","PRT",IF(C132="Черногория","MNE",IF(C132="Болгария","BGR",IF(C132="Австралия","AUS",IF(C132="Канада","CAN",IF(C132="Индия","IND",IF(C132="Новая Зеландия","NZL",IF(C132="Венгрия","HUN",IF(C132="Австрия","AUT",IF(C132="Османская Империя","TUR",IF(C132="Югославия","YUG",IF(C132="Эфиопия","ETH",IF(C132="Финляндия","FIN",IF(C132="Филипины","PHL",IF(C132="Бирма","MMR",IF(C132="Голландия","NLD",IF(C132="Тайланд","THA",IF(C132="Албания","ALB",IF(C132="Испания","ESP",IF(C132="ЮАР","ZAF",IF(C132="Куба","CUB",IF(C132="Сингапур","SGP",IF(C132="Чехословакия","CSHH",IF(C132="Дания","DNK",IF(C132="Норвегия","NOR",IF(C132="Ирак","IRQ",IF(C132="Люксембург","LUX",IF(C132="Ливия","LBY",IF(C132="ГДР","DDR",IF(C132="ФРГ","DEU",IF(C132="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>FRA</v>
@@ -6590,7 +6595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14">
       <c r="A133" s="5" t="str">
         <f t="shared" si="15"/>
         <v>JPN</v>
@@ -6630,7 +6635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14">
       <c r="A134" s="5" t="str">
         <f t="shared" si="15"/>
         <v>FRA</v>
@@ -6670,7 +6675,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14">
       <c r="A135" s="5" t="str">
         <f t="shared" si="15"/>
         <v>JPN</v>
@@ -6713,7 +6718,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14">
       <c r="A136" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -6753,7 +6758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14">
       <c r="A137" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -6793,7 +6798,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14">
       <c r="A138" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -6833,7 +6838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14">
       <c r="A139" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -6873,7 +6878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14">
       <c r="A140" s="5" t="str">
         <f t="shared" si="15"/>
         <v>JPN</v>
@@ -6913,7 +6918,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14">
       <c r="A141" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -6953,7 +6958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14">
       <c r="A142" s="5" t="str">
         <f t="shared" si="15"/>
         <v>RUS</v>
@@ -6993,7 +6998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14">
       <c r="A143" s="5" t="str">
         <f t="shared" si="15"/>
         <v>SUN</v>
@@ -7033,7 +7038,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14">
       <c r="A144" s="5" t="str">
         <f t="shared" si="15"/>
         <v>RUS</v>
@@ -7073,7 +7078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14">
       <c r="A145" s="5" t="str">
         <f t="shared" si="15"/>
         <v>CHN</v>
@@ -7113,7 +7118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14">
       <c r="A146" s="5" t="str">
         <f t="shared" si="15"/>
         <v>CHN</v>
@@ -7153,7 +7158,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14">
       <c r="A147" s="5" t="str">
         <f t="shared" si="15"/>
         <v>CHN</v>
@@ -7193,7 +7198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14">
       <c r="A148" s="5" t="str">
         <f t="shared" si="15"/>
         <v>POL</v>
@@ -7233,7 +7238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14">
       <c r="A149" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DDR</v>
@@ -7273,7 +7278,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14">
       <c r="A150" s="5" t="str">
         <f t="shared" si="15"/>
         <v>POL</v>
@@ -7313,7 +7318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14">
       <c r="A151" s="5" t="str">
         <f t="shared" si="15"/>
         <v>GBR</v>
@@ -7353,7 +7358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14">
       <c r="A152" s="5" t="str">
         <f t="shared" si="15"/>
         <v>POL</v>
@@ -7393,7 +7398,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14">
       <c r="A153" s="5" t="str">
         <f t="shared" si="15"/>
         <v>GBR</v>
@@ -7433,7 +7438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14">
       <c r="A154" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DEU</v>
@@ -7476,7 +7481,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14">
       <c r="A155" s="5" t="str">
         <f t="shared" si="15"/>
         <v>FRA</v>
@@ -7519,7 +7524,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14">
       <c r="A156" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -7562,7 +7567,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14">
       <c r="A157" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -7605,7 +7610,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14">
       <c r="A158" s="5" t="str">
         <f t="shared" si="15"/>
         <v>RUS</v>
@@ -7648,7 +7653,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14">
       <c r="A159" s="5" t="str">
         <f t="shared" si="15"/>
         <v>GBR</v>
@@ -7691,7 +7696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14">
       <c r="A160" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DEU</v>
@@ -7734,7 +7739,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14">
       <c r="A161" s="5" t="str">
         <f t="shared" si="15"/>
         <v>FRA</v>
@@ -7777,7 +7782,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14">
       <c r="A162" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -7820,7 +7825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14">
       <c r="A163" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -7863,7 +7868,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14">
       <c r="A164" s="5" t="str">
         <f t="shared" si="15"/>
         <v>RUS</v>
@@ -7906,7 +7911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14">
       <c r="A165" s="5" t="str">
         <f t="shared" si="15"/>
         <v>CHN</v>
@@ -7946,7 +7951,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14">
       <c r="A166" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DEU</v>
@@ -7986,7 +7991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14">
       <c r="A167" s="5" t="str">
         <f t="shared" si="15"/>
         <v>FRA</v>
@@ -8026,7 +8031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14">
       <c r="A168" s="5" t="str">
         <f t="shared" si="15"/>
         <v>JPN</v>
@@ -8066,7 +8071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14">
       <c r="A169" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -8106,7 +8111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14">
       <c r="A170" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -8146,7 +8151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14">
       <c r="A171" s="5" t="str">
         <f t="shared" si="15"/>
         <v>POL</v>
@@ -8186,7 +8191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14">
       <c r="A172" s="5" t="str">
         <f t="shared" si="15"/>
         <v>SUN</v>
@@ -8226,7 +8231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14">
       <c r="A173" s="5" t="str">
         <f t="shared" si="15"/>
         <v>SUN</v>
@@ -8266,7 +8271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14">
       <c r="A174" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DEU</v>
@@ -8306,7 +8311,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14">
       <c r="A175" s="5" t="str">
         <f t="shared" si="15"/>
         <v>SUN</v>
@@ -8346,7 +8351,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14">
       <c r="A176" s="5" t="str">
         <f t="shared" si="15"/>
         <v>GBR</v>
@@ -8386,7 +8391,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13">
       <c r="A177" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DEU</v>
@@ -8426,7 +8431,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13">
       <c r="A178" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -8466,7 +8471,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13">
       <c r="A179" s="5" t="str">
         <f t="shared" si="15"/>
         <v>SUN</v>
@@ -8506,7 +8511,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13">
       <c r="A180" s="5" t="str">
         <f t="shared" si="15"/>
         <v>GBR</v>
@@ -8546,7 +8551,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13">
       <c r="A181" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DEU</v>
@@ -8586,7 +8591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13">
       <c r="A182" s="5" t="str">
         <f t="shared" si="15"/>
         <v>DEU</v>
@@ -8626,7 +8631,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13">
       <c r="A183" s="5" t="str">
         <f t="shared" si="15"/>
         <v>FRA</v>
@@ -8666,7 +8671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13">
       <c r="A184" s="5" t="str">
         <f t="shared" si="15"/>
         <v>FRA</v>
@@ -8706,7 +8711,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13">
       <c r="A185" s="5" t="str">
         <f t="shared" si="15"/>
         <v>JPN</v>
@@ -8746,7 +8751,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13">
       <c r="A186" s="5" t="str">
         <f t="shared" si="15"/>
         <v>JPN</v>
@@ -8786,7 +8791,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13">
       <c r="A187" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -8826,7 +8831,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13">
       <c r="A188" s="5" t="str">
         <f t="shared" si="15"/>
         <v>ITA</v>
@@ -8866,7 +8871,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13">
       <c r="A189" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -8906,7 +8911,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13">
       <c r="A190" s="5" t="str">
         <f t="shared" si="15"/>
         <v>USA</v>
@@ -8946,7 +8951,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13">
       <c r="A191" s="5" t="str">
         <f t="shared" si="15"/>
         <v>RUS</v>
@@ -8986,7 +8991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13">
       <c r="A192" s="5" t="str">
         <f t="shared" si="15"/>
         <v>RUS</v>
@@ -9026,7 +9031,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14">
       <c r="A193" s="5" t="str">
         <f t="shared" si="15"/>
         <v>CHN</v>
@@ -9066,7 +9071,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14">
       <c r="A194" s="5" t="str">
         <f t="shared" si="15"/>
         <v>CHN</v>
@@ -9106,7 +9111,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14">
       <c r="A195" s="5" t="str">
         <f t="shared" si="15"/>
         <v>POL</v>
@@ -9146,7 +9151,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14">
       <c r="A196" s="5" t="str">
         <f t="shared" ref="A196:A259" si="20">IF(C196="Россия","RUS",IF(C196="Франция","FRA",IF(C196="Великобритания","GBR",IF(C196="Италия","ITA",IF(C196="США","USA",IF(C196="Германия","DEU",IF(C196="Китай","CHN",IF(C196="Япония","JPN",IF(C196="Польша","POL",IF(C196="СССР","SUN",IF(C196="Румыния","ROU",IF(C196="Сербия","SRB",IF(C196="Австро-Венгрия","AUT",IF(C196="Турция","TUR",IF(C196="Бельгия","BEL",IF(C196="Греция","GRC",IF(C196="Португалия","PRT",IF(C196="Черногория","MNE",IF(C196="Болгария","BGR",IF(C196="Австралия","AUS",IF(C196="Канада","CAN",IF(C196="Индия","IND",IF(C196="Новая Зеландия","NZL",IF(C196="Венгрия","HUN",IF(C196="Австрия","AUT",IF(C196="Османская Империя","TUR",IF(C196="Югославия","YUG",IF(C196="Эфиопия","ETH",IF(C196="Финляндия","FIN",IF(C196="Филипины","PHL",IF(C196="Бирма","MMR",IF(C196="Голландия","NLD",IF(C196="Тайланд","THA",IF(C196="Албания","ALB",IF(C196="Испания","ESP",IF(C196="ЮАР","ZAF",IF(C196="Куба","CUB",IF(C196="Сингапур","SGP",IF(C196="Чехословакия","CSHH",IF(C196="Дания","DNK",IF(C196="Норвегия","NOR",IF(C196="Ирак","IRQ",IF(C196="Люксембург","LUX",IF(C196="Ливия","LBY",IF(C196="ГДР","DDR",IF(C196="ФРГ","DEU",IF(C196="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>POL</v>
@@ -9186,7 +9191,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14">
       <c r="A197" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -9226,7 +9231,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14">
       <c r="A198" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -9266,7 +9271,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14">
       <c r="A199" s="5" t="str">
         <f t="shared" si="20"/>
         <v>DEU</v>
@@ -9309,7 +9314,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14">
       <c r="A200" s="5" t="str">
         <f t="shared" si="20"/>
         <v>FRA</v>
@@ -9349,7 +9354,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14">
       <c r="A201" s="5" t="str">
         <f t="shared" si="20"/>
         <v>JPN</v>
@@ -9389,7 +9394,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14">
       <c r="A202" s="5" t="str">
         <f t="shared" si="20"/>
         <v>ITA</v>
@@ -9432,7 +9437,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14">
       <c r="A203" s="5" t="str">
         <f t="shared" si="20"/>
         <v>USA</v>
@@ -9472,7 +9477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14">
       <c r="A204" s="5" t="str">
         <f t="shared" si="20"/>
         <v>RUS</v>
@@ -9512,7 +9517,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14">
       <c r="A205" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -9552,7 +9557,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14">
       <c r="A206" s="5" t="str">
         <f t="shared" si="20"/>
         <v>DEU</v>
@@ -9592,7 +9597,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14">
       <c r="A207" s="5" t="str">
         <f t="shared" si="20"/>
         <v>POL</v>
@@ -9632,7 +9637,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14">
       <c r="A208" s="5" t="str">
         <f t="shared" si="20"/>
         <v>FRA</v>
@@ -9672,7 +9677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14">
       <c r="A209" s="5" t="str">
         <f t="shared" si="20"/>
         <v>JPN</v>
@@ -9712,7 +9717,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14">
       <c r="A210" s="5" t="str">
         <f t="shared" si="20"/>
         <v>ITA</v>
@@ -9752,7 +9757,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14">
       <c r="A211" s="5" t="str">
         <f t="shared" si="20"/>
         <v>USA</v>
@@ -9792,7 +9797,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14">
       <c r="A212" s="5" t="str">
         <f t="shared" si="20"/>
         <v>SUN</v>
@@ -9832,7 +9837,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14">
       <c r="A213" s="5" t="str">
         <f t="shared" si="20"/>
         <v>CHN</v>
@@ -9872,7 +9877,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14">
       <c r="A214" s="5" t="str">
         <f t="shared" si="20"/>
         <v>POL</v>
@@ -9912,7 +9917,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14">
       <c r="A215" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -9952,7 +9957,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14">
       <c r="A216" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -9992,7 +9997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14">
       <c r="A217" s="5" t="str">
         <f t="shared" si="20"/>
         <v>POL</v>
@@ -10029,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14">
       <c r="A218" s="5" t="str">
         <f t="shared" si="20"/>
         <v>CHN</v>
@@ -10066,7 +10071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14">
       <c r="A219" s="5" t="str">
         <f t="shared" si="20"/>
         <v>SUN</v>
@@ -10106,7 +10111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14">
       <c r="A220" s="5" t="str">
         <f t="shared" si="20"/>
         <v>DEU</v>
@@ -10146,7 +10151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14">
       <c r="A221" s="5" t="str">
         <f t="shared" si="20"/>
         <v>USA</v>
@@ -10186,7 +10191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14">
       <c r="A222" s="5" t="str">
         <f t="shared" si="20"/>
         <v>FRA</v>
@@ -10226,7 +10231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14">
       <c r="A223" s="5" t="str">
         <f t="shared" si="20"/>
         <v>JPN</v>
@@ -10269,7 +10274,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14">
       <c r="A224" s="5" t="str">
         <f t="shared" si="20"/>
         <v>SUN</v>
@@ -10309,7 +10314,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14">
       <c r="A225" s="5" t="str">
         <f t="shared" si="20"/>
         <v>SUN</v>
@@ -10349,7 +10354,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14">
       <c r="A226" s="5" t="str">
         <f t="shared" si="20"/>
         <v>DDR</v>
@@ -10389,7 +10394,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14">
       <c r="A227" s="5" t="str">
         <f t="shared" si="20"/>
         <v>POL</v>
@@ -10429,7 +10434,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14">
       <c r="A228" s="5" t="str">
         <f t="shared" si="20"/>
         <v>HUN</v>
@@ -10469,7 +10474,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14">
       <c r="A229" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -10509,7 +10514,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14">
       <c r="A230" s="5" t="str">
         <f t="shared" si="20"/>
         <v>FRA</v>
@@ -10549,7 +10554,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14">
       <c r="A231" s="5" t="str">
         <f t="shared" si="20"/>
         <v>DEU</v>
@@ -10589,7 +10594,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14">
       <c r="A232" s="5" t="str">
         <f t="shared" si="20"/>
         <v>ITA</v>
@@ -10629,7 +10634,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14">
       <c r="A233" s="5" t="str">
         <f t="shared" si="20"/>
         <v>AUS</v>
@@ -10672,7 +10677,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14">
       <c r="A234" s="5" t="str">
         <f t="shared" si="20"/>
         <v>CAN</v>
@@ -10715,7 +10720,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14">
       <c r="A235" s="5" t="str">
         <f t="shared" si="20"/>
         <v>IND</v>
@@ -10758,7 +10763,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14">
       <c r="A236" s="5" t="str">
         <f t="shared" si="20"/>
         <v>NZL</v>
@@ -10801,7 +10806,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14">
       <c r="A237" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -10844,7 +10849,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14">
       <c r="A238" s="5" t="str">
         <f t="shared" si="20"/>
         <v>BEL</v>
@@ -10887,7 +10892,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14">
       <c r="A239" s="5" t="str">
         <f t="shared" si="20"/>
         <v>FRA</v>
@@ -10930,7 +10935,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14">
       <c r="A240" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GRC</v>
@@ -10973,7 +10978,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14">
       <c r="A241" s="5" t="str">
         <f t="shared" si="20"/>
         <v>ITA</v>
@@ -11016,7 +11021,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14">
       <c r="A242" s="5" t="str">
         <f t="shared" si="20"/>
         <v>JPN</v>
@@ -11059,7 +11064,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14">
       <c r="A243" s="5" t="str">
         <f t="shared" si="20"/>
         <v>MNE</v>
@@ -11102,7 +11107,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14">
       <c r="A244" s="5" t="str">
         <f t="shared" si="20"/>
         <v>PRT</v>
@@ -11145,7 +11150,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14">
       <c r="A245" s="5" t="str">
         <f t="shared" si="20"/>
         <v>ROU</v>
@@ -11188,7 +11193,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14">
       <c r="A246" s="5" t="str">
         <f t="shared" si="20"/>
         <v>RUS</v>
@@ -11231,7 +11236,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14">
       <c r="A247" s="5" t="str">
         <f t="shared" si="20"/>
         <v>SRB</v>
@@ -11274,7 +11279,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14">
       <c r="A248" s="5" t="str">
         <f t="shared" si="20"/>
         <v>USA</v>
@@ -11317,7 +11322,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14">
       <c r="A249" s="5" t="str">
         <f t="shared" si="20"/>
         <v>AUT</v>
@@ -11360,7 +11365,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14">
       <c r="A250" s="5" t="str">
         <f t="shared" si="20"/>
         <v>BGR</v>
@@ -11403,7 +11408,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14">
       <c r="A251" s="5" t="str">
         <f t="shared" si="20"/>
         <v>DEU</v>
@@ -11446,7 +11451,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14">
       <c r="A252" s="5" t="str">
         <f t="shared" si="20"/>
         <v>TUR</v>
@@ -11489,7 +11494,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14">
       <c r="A253" s="5" t="str">
         <f t="shared" si="20"/>
         <v>AUS</v>
@@ -11529,7 +11534,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14">
       <c r="A254" s="5" t="str">
         <f t="shared" si="20"/>
         <v>CAN</v>
@@ -11569,7 +11574,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14">
       <c r="A255" s="5" t="str">
         <f t="shared" si="20"/>
         <v>IND</v>
@@ -11609,7 +11614,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14">
       <c r="A256" s="5" t="str">
         <f t="shared" si="20"/>
         <v>NZL</v>
@@ -11649,7 +11654,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13">
       <c r="A257" s="5" t="str">
         <f t="shared" si="20"/>
         <v>GBR</v>
@@ -11689,7 +11694,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13">
       <c r="A258" s="5" t="str">
         <f t="shared" si="20"/>
         <v>BEL</v>
@@ -11729,7 +11734,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13">
       <c r="A259" s="5" t="str">
         <f t="shared" si="20"/>
         <v>FRA</v>
@@ -11769,7 +11774,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13">
       <c r="A260" s="5" t="str">
         <f t="shared" ref="A260:A323" si="25">IF(C260="Россия","RUS",IF(C260="Франция","FRA",IF(C260="Великобритания","GBR",IF(C260="Италия","ITA",IF(C260="США","USA",IF(C260="Германия","DEU",IF(C260="Китай","CHN",IF(C260="Япония","JPN",IF(C260="Польша","POL",IF(C260="СССР","SUN",IF(C260="Румыния","ROU",IF(C260="Сербия","SRB",IF(C260="Австро-Венгрия","AUT",IF(C260="Турция","TUR",IF(C260="Бельгия","BEL",IF(C260="Греция","GRC",IF(C260="Португалия","PRT",IF(C260="Черногория","MNE",IF(C260="Болгария","BGR",IF(C260="Австралия","AUS",IF(C260="Канада","CAN",IF(C260="Индия","IND",IF(C260="Новая Зеландия","NZL",IF(C260="Венгрия","HUN",IF(C260="Австрия","AUT",IF(C260="Османская Империя","TUR",IF(C260="Югославия","YUG",IF(C260="Эфиопия","ETH",IF(C260="Финляндия","FIN",IF(C260="Филипины","PHL",IF(C260="Бирма","MMR",IF(C260="Голландия","NLD",IF(C260="Тайланд","THA",IF(C260="Албания","ALB",IF(C260="Испания","ESP",IF(C260="ЮАР","ZAF",IF(C260="Куба","CUB",IF(C260="Сингапур","SGP",IF(C260="Чехословакия","CSHH",IF(C260="Дания","DNK",IF(C260="Норвегия","NOR",IF(C260="Ирак","IRQ",IF(C260="Люксембург","LUX",IF(C260="Ливия","LBY",IF(C260="ГДР","DDR",IF(C260="ФРГ","DEU",IF(C260="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>GRC</v>
@@ -11809,7 +11814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13">
       <c r="A261" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ITA</v>
@@ -11849,7 +11854,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13">
       <c r="A262" s="5" t="str">
         <f t="shared" si="25"/>
         <v>JPN</v>
@@ -11889,7 +11894,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13">
       <c r="A263" s="5" t="str">
         <f t="shared" si="25"/>
         <v>MNE</v>
@@ -11929,7 +11934,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13">
       <c r="A264" s="5" t="str">
         <f t="shared" si="25"/>
         <v>PRT</v>
@@ -11969,7 +11974,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13">
       <c r="A265" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ROU</v>
@@ -12009,7 +12014,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13">
       <c r="A266" s="5" t="str">
         <f t="shared" si="25"/>
         <v>RUS</v>
@@ -12049,7 +12054,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13">
       <c r="A267" s="5" t="str">
         <f t="shared" si="25"/>
         <v>SRB</v>
@@ -12089,7 +12094,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13">
       <c r="A268" s="5" t="str">
         <f t="shared" si="25"/>
         <v>USA</v>
@@ -12129,7 +12134,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13">
       <c r="A269" s="5" t="str">
         <f t="shared" si="25"/>
         <v>AUT</v>
@@ -12169,7 +12174,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13">
       <c r="A270" s="5" t="str">
         <f t="shared" si="25"/>
         <v>BGR</v>
@@ -12209,7 +12214,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13">
       <c r="A271" s="5" t="str">
         <f t="shared" si="25"/>
         <v>DEU</v>
@@ -12249,7 +12254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13">
       <c r="A272" s="5" t="str">
         <f t="shared" si="25"/>
         <v>TUR</v>
@@ -12289,7 +12294,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14">
       <c r="A273" s="5" t="str">
         <f t="shared" si="25"/>
         <v>SUN</v>
@@ -12332,7 +12337,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14">
       <c r="A274" s="5" t="str">
         <f t="shared" si="25"/>
         <v>DEU</v>
@@ -12375,7 +12380,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14">
       <c r="A275" s="5" t="str">
         <f t="shared" si="25"/>
         <v>CHN</v>
@@ -12418,7 +12423,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14">
       <c r="A276" s="5" t="str">
         <f t="shared" si="25"/>
         <v>JPN</v>
@@ -12461,7 +12466,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14">
       <c r="A277" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ROU</v>
@@ -12501,7 +12506,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14">
       <c r="A278" s="5" t="str">
         <f t="shared" si="25"/>
         <v>POL</v>
@@ -12541,7 +12546,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14">
       <c r="A279" s="5" t="str">
         <f t="shared" si="25"/>
         <v>GBR</v>
@@ -12581,7 +12586,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14">
       <c r="A280" s="5" t="str">
         <f t="shared" si="25"/>
         <v>USA</v>
@@ -12624,7 +12629,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14">
       <c r="A281" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ITA</v>
@@ -12664,7 +12669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14">
       <c r="A282" s="5" t="str">
         <f t="shared" si="25"/>
         <v>HUN</v>
@@ -12704,7 +12709,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14">
       <c r="A283" s="5" t="str">
         <f t="shared" si="25"/>
         <v>AUT</v>
@@ -12744,7 +12749,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14">
       <c r="A284" s="5" t="str">
         <f t="shared" si="25"/>
         <v>YUG</v>
@@ -12784,7 +12789,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14">
       <c r="A285" s="5" t="str">
         <f t="shared" si="25"/>
         <v>FRA</v>
@@ -12824,7 +12829,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14">
       <c r="A286" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ETH</v>
@@ -12867,7 +12872,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14">
       <c r="A287" s="5" t="str">
         <f t="shared" si="25"/>
         <v>FIN</v>
@@ -12907,7 +12912,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14">
       <c r="A288" s="5" t="str">
         <f t="shared" si="25"/>
         <v>GRC</v>
@@ -12947,7 +12952,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14">
       <c r="A289" s="5" t="str">
         <f t="shared" si="25"/>
         <v>PHL</v>
@@ -12987,7 +12992,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14">
       <c r="A290" s="5" t="str">
         <f t="shared" si="25"/>
         <v>CAN</v>
@@ -13027,7 +13032,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14">
       <c r="A291" s="5" t="str">
         <f t="shared" si="25"/>
         <v>NLD</v>
@@ -13067,7 +13072,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14">
       <c r="A292" s="5" t="str">
         <f t="shared" si="25"/>
         <v>IND</v>
@@ -13107,7 +13112,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14">
       <c r="A293" s="5" t="str">
         <f t="shared" si="25"/>
         <v>AUS</v>
@@ -13147,7 +13152,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14">
       <c r="A294" s="5" t="str">
         <f t="shared" si="25"/>
         <v>BEL</v>
@@ -13187,7 +13192,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14">
       <c r="A295" s="5" t="str">
         <f t="shared" si="25"/>
         <v>THA</v>
@@ -13227,7 +13232,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14">
       <c r="A296" s="5" t="str">
         <f t="shared" si="25"/>
         <v>BGR</v>
@@ -13267,7 +13272,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14">
       <c r="A297" s="5" t="str">
         <f t="shared" si="25"/>
         <v>MMR</v>
@@ -13307,7 +13312,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14">
       <c r="A298" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ALB</v>
@@ -13347,7 +13352,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14">
       <c r="A299" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ESP</v>
@@ -13387,7 +13392,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14">
       <c r="A300" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ZAF</v>
@@ -13427,7 +13432,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14">
       <c r="A301" s="5" t="str">
         <f t="shared" si="25"/>
         <v>CUB</v>
@@ -13467,7 +13472,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14">
       <c r="A302" s="5" t="str">
         <f t="shared" si="25"/>
         <v>SGP</v>
@@ -13507,7 +13512,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14">
       <c r="A303" s="5" t="str">
         <f t="shared" si="25"/>
         <v>CSHH</v>
@@ -13550,7 +13555,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14">
       <c r="A304" s="5" t="str">
         <f t="shared" si="25"/>
         <v>DNK</v>
@@ -13590,7 +13595,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13">
       <c r="A305" s="5" t="str">
         <f t="shared" si="25"/>
         <v>NOR</v>
@@ -13630,7 +13635,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13">
       <c r="A306" s="5" t="str">
         <f t="shared" si="25"/>
         <v>NZL</v>
@@ -13670,7 +13675,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13">
       <c r="A307" s="5" t="str">
         <f t="shared" si="25"/>
         <v>IRQ</v>
@@ -13710,7 +13715,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13">
       <c r="A308" s="5" t="str">
         <f t="shared" si="25"/>
         <v>LUX</v>
@@ -13750,7 +13755,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13">
       <c r="A309" s="5" t="str">
         <f t="shared" si="25"/>
         <v>SUN</v>
@@ -13790,7 +13795,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13">
       <c r="A310" s="5" t="str">
         <f t="shared" si="25"/>
         <v>DEU</v>
@@ -13830,7 +13835,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13">
       <c r="A311" s="5" t="str">
         <f t="shared" si="25"/>
         <v>CHN</v>
@@ -13870,7 +13875,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13">
       <c r="A312" s="5" t="str">
         <f t="shared" si="25"/>
         <v>JPN</v>
@@ -13910,7 +13915,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13">
       <c r="A313" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ROU</v>
@@ -13950,7 +13955,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13">
       <c r="A314" s="5" t="str">
         <f t="shared" si="25"/>
         <v>POL</v>
@@ -13990,7 +13995,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13">
       <c r="A315" s="5" t="str">
         <f t="shared" si="25"/>
         <v>GBR</v>
@@ -14030,7 +14035,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13">
       <c r="A316" s="5" t="str">
         <f t="shared" si="25"/>
         <v>USA</v>
@@ -14070,7 +14075,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13">
       <c r="A317" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ITA</v>
@@ -14110,7 +14115,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13">
       <c r="A318" s="5" t="str">
         <f t="shared" si="25"/>
         <v>HUN</v>
@@ -14150,7 +14155,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13">
       <c r="A319" s="5" t="str">
         <f t="shared" si="25"/>
         <v>AUT</v>
@@ -14190,7 +14195,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13">
       <c r="A320" s="5" t="str">
         <f t="shared" si="25"/>
         <v>YUG</v>
@@ -14230,7 +14235,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14">
       <c r="A321" s="5" t="str">
         <f t="shared" si="25"/>
         <v>FRA</v>
@@ -14270,7 +14275,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14">
       <c r="A322" s="5" t="str">
         <f t="shared" si="25"/>
         <v>ETH</v>
@@ -14310,7 +14315,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14">
       <c r="A323" s="5" t="str">
         <f t="shared" si="25"/>
         <v>FIN</v>
@@ -14350,7 +14355,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14">
       <c r="A324" s="5" t="str">
         <f t="shared" ref="A324:A387" si="30">IF(C324="Россия","RUS",IF(C324="Франция","FRA",IF(C324="Великобритания","GBR",IF(C324="Италия","ITA",IF(C324="США","USA",IF(C324="Германия","DEU",IF(C324="Китай","CHN",IF(C324="Япония","JPN",IF(C324="Польша","POL",IF(C324="СССР","SUN",IF(C324="Румыния","ROU",IF(C324="Сербия","SRB",IF(C324="Австро-Венгрия","AUT",IF(C324="Турция","TUR",IF(C324="Бельгия","BEL",IF(C324="Греция","GRC",IF(C324="Португалия","PRT",IF(C324="Черногория","MNE",IF(C324="Болгария","BGR",IF(C324="Австралия","AUS",IF(C324="Канада","CAN",IF(C324="Индия","IND",IF(C324="Новая Зеландия","NZL",IF(C324="Венгрия","HUN",IF(C324="Австрия","AUT",IF(C324="Османская Империя","TUR",IF(C324="Югославия","YUG",IF(C324="Эфиопия","ETH",IF(C324="Финляндия","FIN",IF(C324="Филипины","PHL",IF(C324="Бирма","MMR",IF(C324="Голландия","NLD",IF(C324="Тайланд","THA",IF(C324="Албания","ALB",IF(C324="Испания","ESP",IF(C324="ЮАР","ZAF",IF(C324="Куба","CUB",IF(C324="Сингапур","SGP",IF(C324="Чехословакия","CSHH",IF(C324="Дания","DNK",IF(C324="Норвегия","NOR",IF(C324="Ирак","IRQ",IF(C324="Люксембург","LUX",IF(C324="Ливия","LBY",IF(C324="ГДР","DDR",IF(C324="ФРГ","DEU",IF(C324="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>GRC</v>
@@ -14390,7 +14395,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14">
       <c r="A325" s="5" t="str">
         <f t="shared" si="30"/>
         <v>PHL</v>
@@ -14430,7 +14435,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14">
       <c r="A326" s="5" t="str">
         <f t="shared" si="30"/>
         <v>CAN</v>
@@ -14470,7 +14475,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14">
       <c r="A327" s="5" t="str">
         <f t="shared" si="30"/>
         <v>NLD</v>
@@ -14510,7 +14515,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14">
       <c r="A328" s="5" t="str">
         <f t="shared" si="30"/>
         <v>IND</v>
@@ -14553,7 +14558,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14">
       <c r="A329" s="5" t="str">
         <f t="shared" si="30"/>
         <v>AUS</v>
@@ -14593,7 +14598,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14">
       <c r="A330" s="5" t="str">
         <f t="shared" si="30"/>
         <v>BEL</v>
@@ -14633,7 +14638,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14">
       <c r="A331" s="5" t="str">
         <f t="shared" si="30"/>
         <v>THA</v>
@@ -14676,7 +14681,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14">
       <c r="A332" s="5" t="str">
         <f t="shared" si="30"/>
         <v>BGR</v>
@@ -14716,7 +14721,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14">
       <c r="A333" s="5" t="str">
         <f t="shared" si="30"/>
         <v>MMR</v>
@@ -14756,7 +14761,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14">
       <c r="A334" s="5" t="str">
         <f t="shared" si="30"/>
         <v>ALB</v>
@@ -14799,7 +14804,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14">
       <c r="A335" s="5" t="str">
         <f t="shared" si="30"/>
         <v>ESP</v>
@@ -14839,7 +14844,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14">
       <c r="A336" s="5" t="str">
         <f t="shared" si="30"/>
         <v>ZAF</v>
@@ -14879,7 +14884,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14">
       <c r="A337" s="5" t="str">
         <f t="shared" si="30"/>
         <v>SGP</v>
@@ -14919,7 +14924,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14">
       <c r="A338" s="5" t="str">
         <f t="shared" si="30"/>
         <v>CSHH</v>
@@ -14959,7 +14964,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14">
       <c r="A339" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DNK</v>
@@ -14999,7 +15004,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14">
       <c r="A340" s="5" t="str">
         <f t="shared" si="30"/>
         <v>NOR</v>
@@ -15039,7 +15044,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14">
       <c r="A341" s="5" t="str">
         <f t="shared" si="30"/>
         <v>NZL</v>
@@ -15079,7 +15084,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="342" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" ht="30">
       <c r="A342" s="5" t="str">
         <f t="shared" si="30"/>
         <v>LBY</v>
@@ -15119,7 +15124,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14">
       <c r="A343" s="5" t="str">
         <f t="shared" si="30"/>
         <v>RUS</v>
@@ -15162,7 +15167,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14">
       <c r="A344" s="5" t="str">
         <f t="shared" si="30"/>
         <v>GBR</v>
@@ -15205,7 +15210,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14">
       <c r="A345" s="5" t="str">
         <f t="shared" si="30"/>
         <v>FRA</v>
@@ -15248,7 +15253,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14">
       <c r="A346" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DEU</v>
@@ -15291,7 +15296,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14">
       <c r="A347" s="5" t="str">
         <f t="shared" si="30"/>
         <v>AUT</v>
@@ -15334,7 +15339,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14">
       <c r="A348" s="5" t="str">
         <f t="shared" si="30"/>
         <v>RUS</v>
@@ -15377,7 +15382,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14">
       <c r="A349" s="5" t="str">
         <f t="shared" si="30"/>
         <v>GBR</v>
@@ -15420,7 +15425,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14">
       <c r="A350" s="5" t="str">
         <f t="shared" si="30"/>
         <v>FRA</v>
@@ -15463,7 +15468,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14">
       <c r="A351" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DEU</v>
@@ -15506,7 +15511,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14">
       <c r="A352" s="5" t="str">
         <f t="shared" si="30"/>
         <v>AUT</v>
@@ -15549,7 +15554,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14">
       <c r="A353" s="5" t="str">
         <f t="shared" si="30"/>
         <v>RUS</v>
@@ -15592,7 +15597,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14">
       <c r="A354" s="5" t="str">
         <f t="shared" si="30"/>
         <v>GBR</v>
@@ -15635,7 +15640,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14">
       <c r="A355" s="5" t="str">
         <f t="shared" si="30"/>
         <v>FRA</v>
@@ -15678,7 +15683,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14">
       <c r="A356" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DEU</v>
@@ -15721,7 +15726,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14">
       <c r="A357" s="5" t="str">
         <f t="shared" si="30"/>
         <v>AUT</v>
@@ -15764,7 +15769,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14">
       <c r="A358" s="5" t="str">
         <f t="shared" si="30"/>
         <v>RUS</v>
@@ -15807,7 +15812,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14">
       <c r="A359" s="5" t="str">
         <f t="shared" si="30"/>
         <v>GBR</v>
@@ -15850,7 +15855,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14">
       <c r="A360" s="5" t="str">
         <f t="shared" si="30"/>
         <v>FRA</v>
@@ -15893,7 +15898,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14">
       <c r="A361" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DEU</v>
@@ -15936,7 +15941,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14">
       <c r="A362" s="5" t="str">
         <f t="shared" si="30"/>
         <v>AUT</v>
@@ -15979,7 +15984,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14">
       <c r="A363" s="5" t="str">
         <f t="shared" si="30"/>
         <v>JPN</v>
@@ -16019,7 +16024,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14">
       <c r="A364" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DEU</v>
@@ -16062,7 +16067,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14">
       <c r="A365" s="5" t="str">
         <f t="shared" si="30"/>
         <v>ITA</v>
@@ -16105,7 +16110,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14">
       <c r="A366" s="5" t="str">
         <f t="shared" si="30"/>
         <v>FIN</v>
@@ -16148,7 +16153,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14">
       <c r="A367" s="5" t="str">
         <f t="shared" si="30"/>
         <v>ROU</v>
@@ -16191,7 +16196,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14">
       <c r="A368" s="5" t="str">
         <f t="shared" si="30"/>
         <v>HUN</v>
@@ -16234,7 +16239,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14">
       <c r="A369" s="5" t="str">
         <f t="shared" si="30"/>
         <v>SUN</v>
@@ -16277,7 +16282,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14">
       <c r="A370" s="5" t="str">
         <f t="shared" si="30"/>
         <v>FRA</v>
@@ -16320,7 +16325,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14">
       <c r="A371" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16360,7 +16365,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14">
       <c r="A372" s="5" t="str">
         <f t="shared" si="30"/>
         <v>GBR</v>
@@ -16400,7 +16405,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14">
       <c r="A373" s="5" t="str">
         <f t="shared" si="30"/>
         <v>CHN</v>
@@ -16440,7 +16445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14">
       <c r="A374" s="5" t="str">
         <f t="shared" si="30"/>
         <v>FRA</v>
@@ -16483,7 +16488,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14">
       <c r="A375" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16526,7 +16531,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14">
       <c r="A376" s="5" t="str">
         <f t="shared" si="30"/>
         <v>GBR</v>
@@ -16569,7 +16574,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14">
       <c r="A377" s="5" t="str">
         <f t="shared" si="30"/>
         <v>SUN</v>
@@ -16612,7 +16617,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14">
       <c r="A378" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DEU</v>
@@ -16655,7 +16660,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14">
       <c r="A379" s="5" t="str">
         <f t="shared" si="30"/>
         <v>JPN</v>
@@ -16698,7 +16703,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14">
       <c r="A380" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16738,7 +16743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14">
       <c r="A381" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16778,7 +16783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14">
       <c r="A382" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16818,7 +16823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14">
       <c r="A383" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16858,7 +16863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14">
       <c r="A384" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16898,7 +16903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13">
       <c r="A385" s="5" t="str">
         <f t="shared" si="30"/>
         <v>USA</v>
@@ -16938,7 +16943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13">
       <c r="A386" s="5" t="str">
         <f t="shared" si="30"/>
         <v>SUN</v>
@@ -16978,7 +16983,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13">
       <c r="A387" s="5" t="str">
         <f t="shared" si="30"/>
         <v>DDR</v>
@@ -17018,7 +17023,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13">
       <c r="A388" s="5" t="str">
         <f t="shared" ref="A388:A451" si="35">IF(C388="Россия","RUS",IF(C388="Франция","FRA",IF(C388="Великобритания","GBR",IF(C388="Италия","ITA",IF(C388="США","USA",IF(C388="Германия","DEU",IF(C388="Китай","CHN",IF(C388="Япония","JPN",IF(C388="Польша","POL",IF(C388="СССР","SUN",IF(C388="Румыния","ROU",IF(C388="Сербия","SRB",IF(C388="Австро-Венгрия","AUT",IF(C388="Турция","TUR",IF(C388="Бельгия","BEL",IF(C388="Греция","GRC",IF(C388="Португалия","PRT",IF(C388="Черногория","MNE",IF(C388="Болгария","BGR",IF(C388="Австралия","AUS",IF(C388="Канада","CAN",IF(C388="Индия","IND",IF(C388="Новая Зеландия","NZL",IF(C388="Венгрия","HUN",IF(C388="Австрия","AUT",IF(C388="Османская Империя","TUR",IF(C388="Югославия","YUG",IF(C388="Эфиопия","ETH",IF(C388="Финляндия","FIN",IF(C388="Филипины","PHL",IF(C388="Бирма","MMR",IF(C388="Голландия","NLD",IF(C388="Тайланд","THA",IF(C388="Албания","ALB",IF(C388="Испания","ESP",IF(C388="ЮАР","ZAF",IF(C388="Куба","CUB",IF(C388="Сингапур","SGP",IF(C388="Чехословакия","CSHH",IF(C388="Дания","DNK",IF(C388="Норвегия","NOR",IF(C388="Ирак","IRQ",IF(C388="Люксембург","LUX",IF(C388="Ливия","LBY",IF(C388="ГДР","DDR",IF(C388="ФРГ","DEU",IF(C388="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>POL</v>
@@ -17058,7 +17063,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13">
       <c r="A389" s="5" t="str">
         <f t="shared" si="35"/>
         <v>HUN</v>
@@ -17098,7 +17103,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13">
       <c r="A390" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -17138,7 +17143,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13">
       <c r="A391" s="5" t="str">
         <f t="shared" si="35"/>
         <v>GBR</v>
@@ -17178,7 +17183,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13">
       <c r="A392" s="5" t="str">
         <f t="shared" si="35"/>
         <v>FRA</v>
@@ -17218,7 +17223,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13">
       <c r="A393" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DEU</v>
@@ -17258,7 +17263,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13">
       <c r="A394" s="5" t="str">
         <f t="shared" si="35"/>
         <v>ITA</v>
@@ -17298,7 +17303,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13">
       <c r="A395" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -17338,7 +17343,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13">
       <c r="A396" s="5" t="str">
         <f t="shared" si="35"/>
         <v>SUN</v>
@@ -17378,7 +17383,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13">
       <c r="A397" s="5" t="str">
         <f t="shared" si="35"/>
         <v>CHN</v>
@@ -17418,7 +17423,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13">
       <c r="A398" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -17458,7 +17463,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13">
       <c r="A399" s="5" t="str">
         <f t="shared" si="35"/>
         <v>GBR</v>
@@ -17498,7 +17503,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13">
       <c r="A400" s="5" t="str">
         <f t="shared" si="35"/>
         <v>FRA</v>
@@ -17538,7 +17543,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13">
       <c r="A401" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DEU</v>
@@ -17578,7 +17583,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13">
       <c r="A402" s="5" t="str">
         <f t="shared" si="35"/>
         <v>ITA</v>
@@ -17618,7 +17623,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13">
       <c r="A403" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -17658,7 +17663,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13">
       <c r="A404" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -17698,7 +17703,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13">
       <c r="A405" s="5" t="str">
         <f t="shared" si="35"/>
         <v>SUN</v>
@@ -17738,7 +17743,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13">
       <c r="A406" s="5" t="str">
         <f t="shared" si="35"/>
         <v>CHN</v>
@@ -17778,7 +17783,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13">
       <c r="A407" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -17818,7 +17823,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13">
       <c r="A408" s="5" t="str">
         <f t="shared" si="35"/>
         <v>SUN</v>
@@ -17858,7 +17863,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13">
       <c r="A409" s="5" t="str">
         <f t="shared" si="35"/>
         <v>CHN</v>
@@ -17898,7 +17903,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13">
       <c r="A410" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -17938,7 +17943,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13">
       <c r="A411" s="5" t="str">
         <f t="shared" si="35"/>
         <v>GBR</v>
@@ -17978,7 +17983,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13">
       <c r="A412" s="5" t="str">
         <f t="shared" si="35"/>
         <v>FRA</v>
@@ -18018,7 +18023,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13">
       <c r="A413" s="5" t="str">
         <f t="shared" si="35"/>
         <v>ITA</v>
@@ -18058,7 +18063,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13">
       <c r="A414" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -18098,7 +18103,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13">
       <c r="A415" s="5" t="str">
         <f t="shared" si="35"/>
         <v>HUN</v>
@@ -18138,7 +18143,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13">
       <c r="A416" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -18178,7 +18183,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13">
       <c r="A417" s="5" t="str">
         <f t="shared" si="35"/>
         <v>GBR</v>
@@ -18218,7 +18223,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13">
       <c r="A418" s="5" t="str">
         <f t="shared" si="35"/>
         <v>FRA</v>
@@ -18258,7 +18263,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13">
       <c r="A419" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DEU</v>
@@ -18298,7 +18303,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13">
       <c r="A420" s="5" t="str">
         <f t="shared" si="35"/>
         <v>ITA</v>
@@ -18338,7 +18343,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13">
       <c r="A421" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -18378,7 +18383,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13">
       <c r="A422" s="5" t="str">
         <f t="shared" si="35"/>
         <v>SUN</v>
@@ -18418,7 +18423,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13">
       <c r="A423" s="5" t="str">
         <f t="shared" si="35"/>
         <v>CHN</v>
@@ -18458,7 +18463,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13">
       <c r="A424" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DDR</v>
@@ -18498,7 +18503,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13">
       <c r="A425" s="5" t="str">
         <f t="shared" si="35"/>
         <v>POL</v>
@@ -18538,7 +18543,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13">
       <c r="A426" s="5" t="str">
         <f t="shared" si="35"/>
         <v>HUN</v>
@@ -18578,7 +18583,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13">
       <c r="A427" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -18618,7 +18623,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13">
       <c r="A428" s="5" t="str">
         <f t="shared" si="35"/>
         <v>GBR</v>
@@ -18658,7 +18663,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13">
       <c r="A429" s="5" t="str">
         <f t="shared" si="35"/>
         <v>FRA</v>
@@ -18698,7 +18703,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13">
       <c r="A430" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DEU</v>
@@ -18738,7 +18743,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13">
       <c r="A431" s="5" t="str">
         <f t="shared" si="35"/>
         <v>ITA</v>
@@ -18778,7 +18783,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13">
       <c r="A432" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -18818,7 +18823,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13">
       <c r="A433" s="5" t="str">
         <f t="shared" si="35"/>
         <v>SUN</v>
@@ -18858,7 +18863,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13">
       <c r="A434" s="5" t="str">
         <f t="shared" si="35"/>
         <v>CHN</v>
@@ -18898,7 +18903,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13">
       <c r="A435" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DDR</v>
@@ -18938,7 +18943,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13">
       <c r="A436" s="5" t="str">
         <f t="shared" si="35"/>
         <v>POL</v>
@@ -18978,7 +18983,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13">
       <c r="A437" s="5" t="str">
         <f t="shared" si="35"/>
         <v>HUN</v>
@@ -19018,7 +19023,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13">
       <c r="A438" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -19058,7 +19063,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13">
       <c r="A439" s="5" t="str">
         <f t="shared" si="35"/>
         <v>GBR</v>
@@ -19098,7 +19103,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13">
       <c r="A440" s="5" t="str">
         <f t="shared" si="35"/>
         <v>FRA</v>
@@ -19138,7 +19143,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13">
       <c r="A441" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DEU</v>
@@ -19178,7 +19183,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13">
       <c r="A442" s="5" t="str">
         <f t="shared" si="35"/>
         <v>ITA</v>
@@ -19218,7 +19223,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13">
       <c r="A443" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -19258,7 +19263,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13">
       <c r="A444" s="5" t="str">
         <f t="shared" si="35"/>
         <v>CHN</v>
@@ -19298,7 +19303,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13">
       <c r="A445" s="5" t="str">
         <f t="shared" si="35"/>
         <v>SUN</v>
@@ -19338,7 +19343,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13">
       <c r="A446" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -19378,7 +19383,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13">
       <c r="A447" s="5" t="str">
         <f t="shared" si="35"/>
         <v>DEU</v>
@@ -19418,7 +19423,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13">
       <c r="A448" s="5" t="str">
         <f t="shared" si="35"/>
         <v>FRA</v>
@@ -19458,7 +19463,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13">
       <c r="A449" s="5" t="str">
         <f t="shared" si="35"/>
         <v>JPN</v>
@@ -19498,7 +19503,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13">
       <c r="A450" s="5" t="str">
         <f t="shared" si="35"/>
         <v>ITA</v>
@@ -19538,7 +19543,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13">
       <c r="A451" s="5" t="str">
         <f t="shared" si="35"/>
         <v>USA</v>
@@ -19578,7 +19583,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13">
       <c r="A452" s="5" t="str">
         <f t="shared" ref="A452:A477" si="40">IF(C452="Россия","RUS",IF(C452="Франция","FRA",IF(C452="Великобритания","GBR",IF(C452="Италия","ITA",IF(C452="США","USA",IF(C452="Германия","DEU",IF(C452="Китай","CHN",IF(C452="Япония","JPN",IF(C452="Польша","POL",IF(C452="СССР","SUN",IF(C452="Румыния","ROU",IF(C452="Сербия","SRB",IF(C452="Австро-Венгрия","AUT",IF(C452="Турция","TUR",IF(C452="Бельгия","BEL",IF(C452="Греция","GRC",IF(C452="Португалия","PRT",IF(C452="Черногория","MNE",IF(C452="Болгария","BGR",IF(C452="Австралия","AUS",IF(C452="Канада","CAN",IF(C452="Индия","IND",IF(C452="Новая Зеландия","NZL",IF(C452="Венгрия","HUN",IF(C452="Австрия","AUT",IF(C452="Османская Империя","TUR",IF(C452="Югославия","YUG",IF(C452="Эфиопия","ETH",IF(C452="Финляндия","FIN",IF(C452="Филипины","PHL",IF(C452="Бирма","MMR",IF(C452="Голландия","NLD",IF(C452="Тайланд","THA",IF(C452="Албания","ALB",IF(C452="Испания","ESP",IF(C452="ЮАР","ZAF",IF(C452="Куба","CUB",IF(C452="Сингапур","SGP",IF(C452="Чехословакия","CSHH",IF(C452="Дания","DNK",IF(C452="Норвегия","NOR",IF(C452="Ирак","IRQ",IF(C452="Люксембург","LUX",IF(C452="Ливия","LBY",IF(C452="ГДР","DDR",IF(C452="ФРГ","DEU",IF(C452="КНР","CHN",)))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>RUS</v>
@@ -19618,7 +19623,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13">
       <c r="A453" s="5" t="str">
         <f t="shared" si="40"/>
         <v>CHN</v>
@@ -19658,7 +19663,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13">
       <c r="A454" s="5" t="str">
         <f t="shared" si="40"/>
         <v>POL</v>
@@ -19698,7 +19703,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13">
       <c r="A455" s="5" t="str">
         <f t="shared" si="40"/>
         <v>GBR</v>
@@ -19738,7 +19743,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13">
       <c r="A456" s="5" t="str">
         <f t="shared" si="40"/>
         <v>SUN</v>
@@ -19778,7 +19783,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13">
       <c r="A457" s="5" t="str">
         <f t="shared" si="40"/>
         <v>CHN</v>
@@ -19818,7 +19823,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13">
       <c r="A458" s="5" t="str">
         <f t="shared" si="40"/>
         <v>DDR</v>
@@ -19858,7 +19863,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13">
       <c r="A459" s="5" t="str">
         <f t="shared" si="40"/>
         <v>POL</v>
@@ -19898,7 +19903,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13">
       <c r="A460" s="5" t="str">
         <f t="shared" si="40"/>
         <v>HUN</v>
@@ -19938,7 +19943,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13">
       <c r="A461" s="5" t="str">
         <f t="shared" si="40"/>
         <v>USA</v>
@@ -19978,7 +19983,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13">
       <c r="A462" s="5" t="str">
         <f t="shared" si="40"/>
         <v>GBR</v>
@@ -20018,7 +20023,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13">
       <c r="A463" s="5" t="str">
         <f t="shared" si="40"/>
         <v>FRA</v>
@@ -20058,7 +20063,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13">
       <c r="A464" s="5" t="str">
         <f t="shared" si="40"/>
         <v>DEU</v>
@@ -20098,7 +20103,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13">
       <c r="A465" s="5" t="str">
         <f t="shared" si="40"/>
         <v>ITA</v>
@@ -20138,7 +20143,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13">
       <c r="A466" s="5" t="str">
         <f t="shared" si="40"/>
         <v>JPN</v>
@@ -20178,7 +20183,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13">
       <c r="A467" s="5" t="str">
         <f t="shared" si="40"/>
         <v>USA</v>
@@ -20218,7 +20223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13">
       <c r="A468" s="5" t="str">
         <f t="shared" si="40"/>
         <v>RUS</v>
@@ -20258,7 +20263,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13">
       <c r="A469" s="5" t="str">
         <f t="shared" si="40"/>
         <v>DEU</v>
@@ -20298,7 +20303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13">
       <c r="A470" s="5" t="str">
         <f t="shared" si="40"/>
         <v>FRA</v>
@@ -20338,7 +20343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13">
       <c r="A471" s="5" t="str">
         <f t="shared" si="40"/>
         <v>JPN</v>
@@ -20378,7 +20383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13">
       <c r="A472" s="5" t="str">
         <f t="shared" si="40"/>
         <v>ITA</v>
@@ -20418,7 +20423,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13">
       <c r="A473" s="5" t="str">
         <f t="shared" si="40"/>
         <v>USA</v>
@@ -20458,7 +20463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13">
       <c r="A474" s="5" t="str">
         <f t="shared" si="40"/>
         <v>RUS</v>
@@ -20498,7 +20503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13">
       <c r="A475" s="5" t="str">
         <f t="shared" si="40"/>
         <v>CHN</v>
@@ -20538,7 +20543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13">
       <c r="A476" s="5" t="str">
         <f t="shared" si="40"/>
         <v>POL</v>
@@ -20578,7 +20583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13">
       <c r="A477" s="5" t="str">
         <f t="shared" si="40"/>
         <v>GBR</v>
@@ -20618,6 +20623,7 @@
         <v>16</v>
       </c>
     </row>
+    <row r="478" spans="1:13" s="11" customFormat="1"/>
   </sheetData>
   <autoFilter ref="A1:N477">
     <sortState ref="A199:N455">
